--- a/data-extra/ira_comparison_raw/ira_comparison_updated.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D3C1D-68C0-43CC-B1A6-CFB2D79AC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3243E693-66C9-475A-99B5-A7CEDB0AAD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" activeTab="6" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="830" activeTab="7" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="generation" sheetId="16" r:id="rId1"/>
@@ -20,17 +20,19 @@
     <sheet name="ccs" sheetId="21" r:id="rId5"/>
     <sheet name="elc demand" sheetId="22" r:id="rId6"/>
     <sheet name="emissions" sheetId="23" r:id="rId7"/>
-    <sheet name="fossil" sheetId="24" r:id="rId8"/>
-    <sheet name="ev share" sheetId="25" r:id="rId9"/>
+    <sheet name="non-co2" sheetId="27" r:id="rId8"/>
+    <sheet name="fossil" sheetId="24" r:id="rId9"/>
+    <sheet name="ev share" sheetId="25" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'capacity change'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ccs!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'elc demand'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">emissions!$A$1:$L$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">fossil!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">fossil!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gen cap IPM-EPA'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">generation!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'non-co2'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="142">
   <si>
     <t>IRA</t>
   </si>
@@ -460,6 +462,24 @@
   <si>
     <t>Mt CO2e/yr</t>
   </si>
+  <si>
+    <t>Emissions|Sulfur</t>
+  </si>
+  <si>
+    <t>Mt NOx/yr</t>
+  </si>
+  <si>
+    <t>Emissions|Sulfur|Energy|Supply|Electricity</t>
+  </si>
+  <si>
+    <t>Mt SO2/yr</t>
+  </si>
+  <si>
+    <t>Emissions|NOx</t>
+  </si>
+  <si>
+    <t>Emissions|NOx|Energy|Supply|Electricity</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -524,6 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,30 +868,30 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -927,7 +950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1009,7 @@
         <v>12.4887</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1068,7 @@
         <v>12.595700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1127,7 @@
         <v>12.8887</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>31.444381414149994</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1245,7 @@
         <v>38.704500244636002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +1304,7 @@
         <v>32.178566482027996</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1363,7 @@
         <v>24.66827357147509</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1422,7 @@
         <v>32.215430794665096</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1481,7 @@
         <v>39.605315111815948</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1517,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1717,7 @@
         <v>23.691685620000005</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1812,7 +1835,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1894,7 @@
         <v>3.9597449999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1930,7 +1953,7 @@
         <v>3.8828450000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1989,7 +2012,7 @@
         <v>4.9458029999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2071,7 @@
         <v>67.779307134056793</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -2107,7 +2130,7 @@
         <v>66.899651319493003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2189,7 @@
         <v>43.686656892965701</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2225,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2284,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2343,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2461,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2520,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -2579,7 +2602,7 @@
         <v>26.525600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +2661,7 @@
         <v>27.876999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -2697,7 +2720,7 @@
         <v>28.607499999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2756,7 +2779,7 @@
         <v>28.565074268765997</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2838,7 @@
         <v>35.438738063191998</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2897,7 @@
         <v>36.449421593039993</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2933,7 +2956,7 @@
         <v>25.863162681742054</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2992,7 +3015,7 @@
         <v>33.66006762189668</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3051,7 +3074,7 @@
         <v>41.686308133032462</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -3110,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -3228,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -3287,7 +3310,7 @@
         <v>23.691685620000005</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3346,7 +3369,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -3405,7 +3428,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3464,7 +3487,7 @@
         <v>3.9602170000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3523,7 +3546,7 @@
         <v>3.936925</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3582,7 +3605,7 @@
         <v>3.9109629999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -3641,7 +3664,7 @@
         <v>67.870024072608601</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -3700,7 +3723,7 @@
         <v>85.7579116462435</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -3759,7 +3782,7 @@
         <v>81.5168570997795</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -3818,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3877,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -3936,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -3995,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -4054,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -4111,6 +4134,315 @@
       </c>
       <c r="S55" s="2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39714624-A521-478D-8A69-545672D7BDC0}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>0.15271899999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.34128179999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.361236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>0.18899999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.42700000000000005</v>
+      </c>
+      <c r="H3">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>9.792107402116626E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.31698236573586602</v>
+      </c>
+      <c r="H4">
+        <v>0.30062274667076816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>0.1797</v>
+      </c>
+      <c r="G5">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.5353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.8145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>0.1484036</v>
+      </c>
+      <c r="G7">
+        <v>0.29292699999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.35405660000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <v>0.114</v>
+      </c>
+      <c r="G8">
+        <v>0.24</v>
+      </c>
+      <c r="H8">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>0.1146303343999167</v>
+      </c>
+      <c r="G9">
+        <v>0.22097885890187796</v>
+      </c>
+      <c r="H9">
+        <v>0.29428409521239485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>0.1648</v>
+      </c>
+      <c r="G10">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.43259999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.4274</v>
+      </c>
+      <c r="H11">
+        <v>0.58609999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -4126,29 +4458,29 @@
       <selection activeCell="E1" sqref="E1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4210,7 +4542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4272,7 +4604,7 @@
         <v>26.515999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4334,7 +4666,7 @@
         <v>26.605</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4396,7 +4728,7 @@
         <v>26.838999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4458,7 +4790,7 @@
         <v>6.9255594521028101</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4852,7 @@
         <v>8.5907362174843893</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4914,7 @@
         <v>7.1338227260348699</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4644,7 +4976,7 @@
         <v>27.20249978278671</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4706,7 +5038,7 @@
         <v>26.764438880088019</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4768,7 +5100,7 @@
         <v>26.764438880088019</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4830,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4954,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5016,7 +5348,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -5078,7 +5410,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -5140,7 +5472,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5202,7 +5534,7 @@
         <v>0.26047300000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -5264,7 +5596,7 @@
         <v>0.26047300000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -5326,7 +5658,7 @@
         <v>0.42002800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5388,7 +5720,7 @@
         <v>70.406508593391806</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -5450,7 +5782,7 @@
         <v>62.069737511263597</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -5512,7 +5844,7 @@
         <v>56.436494487375199</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5574,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -5636,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -5698,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5760,7 +6092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -5822,7 +6154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -5884,7 +6216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -5946,7 +6278,7 @@
         <v>28.233000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6340,7 @@
         <v>28.481000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -6070,7 +6402,7 @@
         <v>28.620999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -6132,7 +6464,7 @@
         <v>6.0567118555990298</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -6194,7 +6526,7 @@
         <v>7.5406811435237104</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -6256,7 +6588,7 @@
         <v>7.74509470429446</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -6318,7 +6650,7 @@
         <v>29.962870566003026</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -6380,7 +6712,7 @@
         <v>29.256523848241148</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -6442,7 +6774,7 @@
         <v>29.256523848241148</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -6504,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -6566,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -6628,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -6690,7 +7022,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -6752,7 +7084,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +7146,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -6876,7 +7208,7 @@
         <v>0.26036799999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -6938,7 +7270,7 @@
         <v>0.26036799999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -7000,7 +7332,7 @@
         <v>0.259268</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -7062,7 +7394,7 @@
         <v>71.467753188640401</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -7124,7 +7456,7 @@
         <v>61.481480292122598</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -7186,7 +7518,7 @@
         <v>54.334213728122599</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -7248,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -7310,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -7372,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -7434,7 +7766,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -7496,7 +7828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -7571,18 +7903,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7617,7 +7949,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -7652,7 +7984,7 @@
         <v>5.8723799980000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -7687,7 +8019,7 @@
         <v>7.2743970080000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
@@ -7722,7 +8054,7 @@
         <v>0.53561357900000006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -7757,7 +8089,7 @@
         <v>0.31393416100000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -7792,7 +8124,7 @@
         <v>9.2855571569185642</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -7827,7 +8159,7 @@
         <v>42.122789450325342</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -7862,7 +8194,7 @@
         <v>3.2811637340000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -7897,7 +8229,7 @@
         <v>10.374812432000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -7932,7 +8264,7 @@
         <v>448.23067470386337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -7967,7 +8299,7 @@
         <v>462.84632055900005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -8002,7 +8334,7 @@
         <v>341.88293394378798</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -8037,7 +8369,7 @@
         <v>286.00747052572103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -8072,7 +8404,7 @@
         <v>86.117518552999996</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -8107,7 +8439,7 @@
         <v>87.189216487999985</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -8142,7 +8474,7 @@
         <v>28.224771360999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -8177,7 +8509,7 @@
         <v>45.247099999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -8212,7 +8544,7 @@
         <v>6.9493</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -8247,7 +8579,7 @@
         <v>6.9493</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -8282,7 +8614,7 @@
         <v>165.77865126051398</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -8317,7 +8649,7 @@
         <v>165.77865126051398</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>113</v>
       </c>
@@ -8352,7 +8684,7 @@
         <v>377.10317873299994</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>113</v>
       </c>
@@ -8387,7 +8719,7 @@
         <v>539.189656786</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -8422,7 +8754,7 @@
         <v>104.985630633</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -8457,7 +8789,7 @@
         <v>176.49088102500002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -8492,7 +8824,7 @@
         <v>583.53659977500001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -8527,7 +8859,7 @@
         <v>747.81574590700006</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -8562,7 +8894,7 @@
         <v>47.495178993970008</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -8597,7 +8929,7 @@
         <v>33.621564103406001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -8632,7 +8964,7 @@
         <v>3.7867657298880002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
@@ -8667,7 +8999,7 @@
         <v>2.1695472420719999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -8702,7 +9034,7 @@
         <v>3.9556141226429999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -8737,7 +9069,7 @@
         <v>163.08760313579896</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -8772,7 +9104,7 @@
         <v>10.919436104515</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -8807,7 +9139,7 @@
         <v>39.368069411496002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -8842,7 +9174,7 @@
         <v>61.203816560618996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -8877,7 +9209,7 @@
         <v>168.138948894522</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -8912,7 +9244,7 @@
         <v>1498.4718595558331</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -8947,7 +9279,7 @@
         <v>776.10531886311992</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -8982,7 +9314,7 @@
         <v>346.66610433580303</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -9017,7 +9349,7 @@
         <v>345.99100203068804</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -9052,7 +9384,7 @@
         <v>228.912165680328</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
@@ -9087,7 +9419,7 @@
         <v>339.51913622386201</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -9122,7 +9454,7 @@
         <v>25.799958690114998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
@@ -9157,7 +9489,7 @@
         <v>28.810171960273003</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -9192,7 +9524,7 @@
         <v>234.882818206466</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -9227,7 +9559,7 @@
         <v>234.882818206466</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
@@ -9262,7 +9594,7 @@
         <v>938.6871748523356</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>113</v>
       </c>
@@ -9297,7 +9629,7 @@
         <v>1329.7699330662865</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
@@ -9332,7 +9664,7 @@
         <v>2198.172325551528</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -9385,17 +9717,17 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -9436,7 +9768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -9477,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -9518,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -9559,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -9600,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -9641,7 +9973,7 @@
         <v>4.2857142857142858E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -9682,7 +10014,7 @@
         <v>5.7142857142857148E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -9723,7 +10055,7 @@
         <v>7.9214285714285717</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -9764,7 +10096,7 @@
         <v>10.428571428571429</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -9805,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -9846,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -9887,7 +10219,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -9928,7 +10260,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -9969,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -10010,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -10051,7 +10383,7 @@
         <v>63.26428571428572</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -10092,7 +10424,7 @@
         <v>35.48571428571428</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -10133,7 +10465,7 @@
         <v>18.285714285714285</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -10174,7 +10506,7 @@
         <v>7.7428571428571429</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -10215,7 +10547,7 @@
         <v>35.771428571428572</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -10256,7 +10588,7 @@
         <v>17.271428571428572</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -10297,7 +10629,7 @@
         <v>-8.9785714285714295</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -10338,7 +10670,7 @@
         <v>-7.1000000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -10379,7 +10711,7 @@
         <v>-5.3500000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -10420,7 +10752,7 @@
         <v>-4.1500000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -10461,7 +10793,7 @@
         <v>-1.9857142857142858</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -10502,7 +10834,7 @@
         <v>-1.9857142857142858</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>133</v>
       </c>
@@ -10543,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>133</v>
       </c>
@@ -10584,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>134</v>
       </c>
@@ -10625,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -10666,51 +10998,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43"/>
       <c r="C43"/>
     </row>
@@ -10732,28 +11064,28 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="26" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="4"/>
+    <col min="29" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -10791,7 +11123,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -10829,7 +11161,7 @@
         <v>14.1853</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -10867,7 +11199,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -10905,7 +11237,7 @@
         <v>1.3368</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -10943,7 +11275,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -10981,7 +11313,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -11019,7 +11351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -11057,7 +11389,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -11095,7 +11427,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>113</v>
       </c>
@@ -11131,7 +11463,7 @@
         <v>5.3588452100484147</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -11169,7 +11501,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -11207,7 +11539,7 @@
         <v>8.4641999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>113</v>
       </c>
@@ -11243,7 +11575,7 @@
         <v>4.4636785382157314</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -11281,7 +11613,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -11319,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11353,7 +11685,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -11391,7 +11723,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -11429,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -11467,7 +11799,7 @@
         <v>26.985559999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -11505,7 +11837,7 @@
         <v>26.737650000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -11543,7 +11875,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>113</v>
       </c>
@@ -11579,7 +11911,7 @@
         <v>16.11865922343058</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -11617,7 +11949,7 @@
         <v>0.84570741826107831</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>113</v>
       </c>
@@ -11653,7 +11985,7 @@
         <v>2.991203808895087</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -11691,7 +12023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -11729,7 +12061,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -11768,7 +12100,7 @@
       </c>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -11806,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -11844,7 +12176,7 @@
         <v>234.85301000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -11882,7 +12214,7 @@
         <v>2230.2998399999997</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -11914,7 +12246,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -11946,7 +12278,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -11978,7 +12310,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -12010,7 +12342,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
@@ -12042,7 +12374,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -12074,7 +12406,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
@@ -12106,7 +12438,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
@@ -12138,7 +12470,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -12170,7 +12502,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -12202,7 +12534,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
@@ -12252,19 +12584,19 @@
       <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -12302,7 +12634,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -12340,7 +12672,7 @@
         <v>3677.2674999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12378,7 +12710,7 @@
         <v>3735.3089500000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12407,7 +12739,7 @@
         <v>3296.1133303818037</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -12436,7 +12768,7 @@
         <v>3294.5353357981189</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -12471,7 +12803,7 @@
         <v>3266.9652017974854</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -12506,7 +12838,7 @@
         <v>3266.9652017974854</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -12541,7 +12873,7 @@
         <v>3866.7500998113555</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -12576,7 +12908,7 @@
         <v>3866.7500998113555</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -12614,7 +12946,7 @@
         <v>3352.8143309999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -12652,7 +12984,7 @@
         <v>3352.8143309999996</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -12690,7 +13022,7 @@
         <v>3761.1300888000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -12728,7 +13060,7 @@
         <v>3222.1618882000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -12757,7 +13089,7 @@
         <v>2882.7041010000003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -12786,7 +13118,7 @@
         <v>2839.3911129999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -12824,7 +13156,7 @@
         <v>2140.9580301016745</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12862,7 +13194,7 @@
         <v>2201.2185532618646</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -12900,7 +13232,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -12938,7 +13270,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -12976,7 +13308,7 @@
         <v>0.52845462132782128</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -13014,7 +13346,7 @@
         <v>0.54584647806857178</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -13045,7 +13377,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -13077,7 +13409,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -13109,7 +13441,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -13141,7 +13473,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -13173,7 +13505,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -13205,7 +13537,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -13243,7 +13575,7 @@
         <v>0.5464</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -13281,7 +13613,7 @@
         <v>0.62180000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -13319,7 +13651,7 @@
         <v>5631.08</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -13357,7 +13689,7 @@
         <v>5958.4539999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -13389,7 +13721,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -13421,7 +13753,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -13457,7 +13789,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -13493,7 +13825,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -13531,7 +13863,7 @@
         <v>5137.6952059999994</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -13569,7 +13901,7 @@
         <v>5137.6952059999994</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -13607,7 +13939,7 @@
         <v>5571.3640150000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -13645,7 +13977,7 @@
         <v>5258.0698420000008</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -13675,7 +14007,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -13705,7 +14037,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -13738,7 +14070,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -13771,7 +14103,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -13809,7 +14141,7 @@
         <v>4608.8733175386515</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -13847,7 +14179,7 @@
         <v>5189.3249895325889</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -13885,7 +14217,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -13923,7 +14255,7 @@
         <v>6783</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -13961,7 +14293,7 @@
         <v>1146.4998000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -13999,7 +14331,7 @@
         <v>1156.87004</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -14029,7 +14361,7 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -14059,7 +14391,7 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -14094,7 +14426,7 @@
         <v>1129.9774901733399</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -14129,7 +14461,7 @@
         <v>1129.9774901733399</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -14164,7 +14496,7 @@
         <v>1316.7229574691614</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -14199,7 +14531,7 @@
         <v>1316.7229574691614</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -14237,7 +14569,7 @@
         <v>1217.4959719999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -14275,7 +14607,7 @@
         <v>1217.4959719999999</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -14313,7 +14645,7 @@
         <v>1203.7929636000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -14351,7 +14683,7 @@
         <v>1348.1413406000001</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -14380,7 +14712,7 @@
         <v>995.17260699999997</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -14409,7 +14741,7 @@
         <v>993.86877400000003</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -14447,7 +14779,7 @@
         <v>1672.694509904273</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -14485,7 +14817,7 @@
         <v>2057.6194948441666</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -14523,7 +14855,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -14561,7 +14893,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -14599,7 +14931,7 @@
         <v>0.17518715978691762</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -14637,7 +14969,7 @@
         <v>0.17443427971859332</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -14666,7 +14998,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -14696,7 +15028,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -14728,7 +15060,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -14760,7 +15092,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -14792,7 +15124,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -14824,7 +15156,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -14862,7 +15194,7 @@
         <v>0.17019999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -14900,7 +15232,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -14938,7 +15270,7 @@
         <v>421.70178199999998</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -14976,7 +15308,7 @@
         <v>421.70178199999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -15010,7 +15342,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -15044,7 +15376,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -15082,7 +15414,7 @@
         <v>0.2894022176505377</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -15120,7 +15452,7 @@
         <v>0.29284086288225153</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -15152,7 +15484,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -15184,7 +15516,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -15222,7 +15554,7 @@
         <v>0.28719855911960585</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -15260,7 +15592,7 @@
         <v>0.29610699749929525</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -15292,7 +15624,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -15324,7 +15656,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -15356,7 +15688,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -15388,7 +15720,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -15426,7 +15758,7 @@
         <v>0.3382</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -15464,7 +15796,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -15502,7 +15834,7 @@
         <v>224.83474700000011</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>4</v>
       </c>
@@ -15540,7 +15872,7 @@
         <v>242.22219800000005</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -15569,7 +15901,7 @@
         <v>42.089881546606108</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -15598,7 +15930,7 @@
         <v>60.038381027783508</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -15633,7 +15965,7 @@
         <v>9.4449298933148391</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -15668,7 +16000,7 @@
         <v>9.4449298933148391</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -15706,7 +16038,7 @@
         <v>82.542327</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -15744,7 +16076,7 @@
         <v>82.542327000000014</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -15773,7 +16105,7 @@
         <v>8.6098509073857201</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -15802,7 +16134,7 @@
         <v>99.133136485345887</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -15840,7 +16172,7 @@
         <v>276.17741850701765</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -15878,7 +16210,7 @@
         <v>290.18540104574936</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -15916,7 +16248,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -15954,7 +16286,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
@@ -15992,7 +16324,7 @@
         <v>565.90599999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -16030,7 +16362,7 @@
         <v>565.221</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -16062,7 +16394,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -16094,7 +16426,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -16129,7 +16461,7 @@
         <v>80.407967200279231</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -16164,7 +16496,7 @@
         <v>80.407967200279231</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -16199,7 +16531,7 @@
         <v>594.45734713116724</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
@@ -16234,7 +16566,7 @@
         <v>594.45734713116724</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -16272,7 +16604,7 @@
         <v>145.683121</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -16310,7 +16642,7 @@
         <v>145.683121</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
@@ -16348,7 +16680,7 @@
         <v>523.89863560000003</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -16386,7 +16718,7 @@
         <v>605.22428620000005</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -16415,7 +16747,7 @@
         <v>162.45490709261429</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -16444,7 +16776,7 @@
         <v>188.03278751465413</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -16482,7 +16814,7 @@
         <v>519.0433590256863</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -16520,7 +16852,7 @@
         <v>640.30154038080877</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>12</v>
       </c>
@@ -16558,7 +16890,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -16596,7 +16928,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>4</v>
       </c>
@@ -16634,7 +16966,7 @@
         <v>0.13599967094113752</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>4</v>
       </c>
@@ -16672,7 +17004,7 @@
         <v>0.13674947416264546</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -16701,7 +17033,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -16730,7 +17062,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -16759,7 +17091,7 @@
         <v>2.4171329605136006E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -16789,7 +17121,7 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -16819,7 +17151,7 @@
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -16851,7 +17183,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -16889,7 +17221,7 @@
         <v>0.2974</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -16927,7 +17259,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>4</v>
       </c>
@@ -16967,7 +17299,7 @@
       <c r="M134" s="8"/>
       <c r="N134" s="8"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -17019,25 +17351,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AD1EAB-3E18-4675-BB8F-357DEABF119E}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -17075,7 +17407,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -17113,7 +17445,7 @@
         <v>-685</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -17151,7 +17483,7 @@
         <v>-708.351</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -17180,7 +17512,7 @@
         <v>-812</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -17209,7 +17541,7 @@
         <v>-812.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -17247,7 +17579,7 @@
         <v>-771.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -17285,7 +17617,7 @@
         <v>-771.6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -17314,7 +17646,7 @@
         <v>-861.83824144026971</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -17343,7 +17675,7 @@
         <v>-887.95781918520561</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -17381,7 +17713,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -17419,7 +17751,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -17457,7 +17789,7 @@
         <v>542.00099999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -17495,7 +17827,7 @@
         <v>513.73500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -17524,7 +17856,7 @@
         <v>504.03872077018599</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -17553,7 +17885,7 @@
         <v>446.248934102666</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -17591,7 +17923,7 @@
         <v>281.81</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -17629,7 +17961,7 @@
         <v>237.2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -17658,7 +17990,7 @@
         <v>565.6639759999988</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -17687,7 +18019,7 @@
         <v>561.91441599999894</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -17725,7 +18057,7 @@
         <v>430.56817312125855</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -17763,7 +18095,7 @@
         <v>400.8608308613276</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -17801,7 +18133,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -17839,7 +18171,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -17877,7 +18209,7 @@
         <v>887.55632000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -17915,7 +18247,7 @@
         <v>821.72208999999987</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -17944,7 +18276,7 @@
         <v>1222.12174799319</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -17973,7 +18305,7 @@
         <v>1063.6926035448</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -18011,7 +18343,7 @@
         <v>1251.0899999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -18049,7 +18381,7 @@
         <v>1124.6299999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -18078,7 +18410,7 @@
         <v>827.1127708460441</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -18107,7 +18439,7 @@
         <v>702.81426574292493</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -18145,7 +18477,7 @@
         <v>810.21700559869782</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -18183,7 +18515,7 @@
         <v>685.1548082249933</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -18221,7 +18553,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -18259,7 +18591,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -18297,7 +18629,7 @@
         <v>1030.0434520000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -18335,7 +18667,7 @@
         <v>1041.9151970000003</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -18364,7 +18696,7 @@
         <v>1306.2932367497699</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -18393,7 +18725,7 @@
         <v>1282.9675605035</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -18431,7 +18763,7 @@
         <v>1097.25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -18469,7 +18801,7 @@
         <v>1033.69</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -18498,7 +18830,7 @@
         <v>1385.1292751382059</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -18527,7 +18859,7 @@
         <v>1346.0420396172681</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -18565,7 +18897,7 @@
         <v>969.80071663116519</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -18603,7 +18935,7 @@
         <v>900.04639019641581</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -18641,7 +18973,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -18679,7 +19011,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -18717,7 +19049,7 @@
         <v>1247.8399999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -18755,7 +19087,7 @@
         <v>395.06900000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -18784,7 +19116,7 @@
         <v>1293.1152861035</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -18813,7 +19145,7 @@
         <v>445.58029832678199</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -18848,7 +19180,7 @@
         <v>1153.7606291317693</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -18883,7 +19215,7 @@
         <v>761.73269917810103</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -18921,7 +19253,7 @@
         <v>844.16206019677293</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -18959,7 +19291,7 @@
         <v>356.71684510032821</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -18997,7 +19329,7 @@
         <v>598.25432344749174</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -19035,7 +19367,7 @@
         <v>62.07014793075404</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -19073,7 +19405,7 @@
         <v>1528.36</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -19111,7 +19443,7 @@
         <v>449.61999999999989</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -19140,7 +19472,7 @@
         <v>906.24422783061641</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -19169,7 +19501,7 @@
         <v>588.5355894123727</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -19201,7 +19533,7 @@
         <v>1124.6619767613799</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -19233,7 +19565,7 @@
         <v>491.183994655079</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -19271,7 +19603,7 @@
         <v>1000.4238031946613</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -19309,7 +19641,7 @@
         <v>415.69533935001493</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -19347,7 +19679,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -19385,7 +19717,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -19423,7 +19755,7 @@
         <v>407.80137999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -19461,7 +19793,7 @@
         <v>348.92210999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -19490,7 +19822,7 @@
         <v>32.764189726203355</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -19519,7 +19851,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -19557,7 +19889,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -19595,7 +19927,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -19624,7 +19956,7 @@
         <v>385.06488072230201</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -19653,7 +19985,7 @@
         <v>373.2693249801506</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -19691,7 +20023,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -19729,7 +20061,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -19767,7 +20099,7 @@
         <v>76.281899999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -19805,7 +20137,7 @@
         <v>75.736000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -19843,7 +20175,7 @@
         <v>1352.0200999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -19881,7 +20213,7 @@
         <v>1332.5611999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -19910,7 +20242,7 @@
         <v>1323.6217531392554</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -19939,7 +20271,7 @@
         <v>1326.308905861415</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -19977,7 +20309,7 @@
         <v>476.98016000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -20015,7 +20347,7 @@
         <v>431.33605999999992</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -20044,7 +20376,7 @@
         <v>1133.3649627079108</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -20073,7 +20405,7 @@
         <v>1099.8026285324654</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -20111,7 +20443,7 @@
         <v>1116.76026705139</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -20160,6 +20492,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD3FA3C-D2A6-44F0-BCFE-2B4F5AEC8FB0}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2030</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2035</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2040</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2045</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>5.42</v>
+      </c>
+      <c r="G2">
+        <v>5.42</v>
+      </c>
+      <c r="H2">
+        <v>4.88</v>
+      </c>
+      <c r="I2">
+        <v>4.13</v>
+      </c>
+      <c r="J2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K2">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>7.6924699999999993</v>
+      </c>
+      <c r="G3">
+        <v>7.0060799999999999</v>
+      </c>
+      <c r="H3">
+        <v>6.2359900000000001</v>
+      </c>
+      <c r="I3">
+        <v>5.9033199999999999</v>
+      </c>
+      <c r="J3">
+        <v>5.4030999999999993</v>
+      </c>
+      <c r="K3">
+        <v>5.14907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>8.6813649999999996</v>
+      </c>
+      <c r="G4">
+        <v>7.9324506999999995</v>
+      </c>
+      <c r="H4">
+        <v>7.4431719999999997</v>
+      </c>
+      <c r="I4">
+        <v>7.3147267000000005</v>
+      </c>
+      <c r="J4">
+        <v>7.3923226999999994</v>
+      </c>
+      <c r="K4">
+        <v>7.5111488999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>5.47</v>
+      </c>
+      <c r="G5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H5">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J5">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K5">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <v>7.7782312646149805</v>
+      </c>
+      <c r="G6">
+        <v>7.1820986799609905</v>
+      </c>
+      <c r="H6">
+        <v>6.7016465062222217</v>
+      </c>
+      <c r="I6">
+        <v>6.5064752193473838</v>
+      </c>
+      <c r="J6">
+        <v>6.1968879391038065</v>
+      </c>
+      <c r="K6">
+        <v>5.8416028953330104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>8.8638967999999991</v>
+      </c>
+      <c r="G7">
+        <v>8.398892</v>
+      </c>
+      <c r="H7">
+        <v>8.073852500000001</v>
+      </c>
+      <c r="I7">
+        <v>7.9339583999999999</v>
+      </c>
+      <c r="J7">
+        <v>7.9007297000000012</v>
+      </c>
+      <c r="K7">
+        <v>7.9449733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <v>7.4626364062909495E-7</v>
+      </c>
+      <c r="G8">
+        <v>3.4822925365783605E-7</v>
+      </c>
+      <c r="H8">
+        <v>3.3292045311520802E-7</v>
+      </c>
+      <c r="I8">
+        <v>2.7780478749654904E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>0.40337799383277273</v>
+      </c>
+      <c r="G9">
+        <v>0.28789035954496445</v>
+      </c>
+      <c r="H9">
+        <v>0.25886643926814829</v>
+      </c>
+      <c r="I9">
+        <v>0.15918106773690016</v>
+      </c>
+      <c r="J9">
+        <v>7.6771627554891309E-3</v>
+      </c>
+      <c r="K9">
+        <v>9.7063984025853346E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>0.58602200000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.26816400000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.12501499999999999</v>
+      </c>
+      <c r="I10">
+        <v>9.2716599999999996E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.105333</v>
+      </c>
+      <c r="K10">
+        <v>0.13275200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11">
+        <v>0.73751</v>
+      </c>
+      <c r="G11">
+        <v>0.53952999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.40888000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.35618</v>
+      </c>
+      <c r="J11">
+        <v>0.20247000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>0.78901398779406651</v>
+      </c>
+      <c r="G12">
+        <v>0.55823700832772671</v>
+      </c>
+      <c r="H12">
+        <v>0.50493699837780026</v>
+      </c>
+      <c r="I12">
+        <v>0.5107482706861004</v>
+      </c>
+      <c r="J12">
+        <v>0.51945217865644222</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <v>9.0375639723683999E-7</v>
+      </c>
+      <c r="G13">
+        <v>8.16589553091067E-7</v>
+      </c>
+      <c r="H13">
+        <v>7.4836850618998791E-7</v>
+      </c>
+      <c r="I13">
+        <v>6.9204062965408001E-7</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14">
+        <v>0.35942139237666632</v>
+      </c>
+      <c r="G14">
+        <v>0.30409349436746824</v>
+      </c>
+      <c r="H14">
+        <v>0.2801663248895348</v>
+      </c>
+      <c r="I14">
+        <v>0.16563044434155083</v>
+      </c>
+      <c r="J14">
+        <v>0.12242875753589037</v>
+      </c>
+      <c r="K14">
+        <v>0.10340554742487192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15">
+        <v>0.72163900000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.59584700000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.58569199999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.58660999999999996</v>
+      </c>
+      <c r="J15">
+        <v>0.58320700000000003</v>
+      </c>
+      <c r="K15">
+        <v>0.59092100000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <v>0.78186815094098483</v>
+      </c>
+      <c r="G16">
+        <v>0.62045733069506748</v>
+      </c>
+      <c r="H16">
+        <v>0.56865182035295914</v>
+      </c>
+      <c r="I16">
+        <v>0.51866136824024089</v>
+      </c>
+      <c r="J16">
+        <v>0.42045031279472034</v>
+      </c>
+      <c r="K16">
+        <v>0.31429332733799759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <v>0.90527982501284321</v>
+      </c>
+      <c r="G17">
+        <v>0.79281190958362335</v>
+      </c>
+      <c r="H17">
+        <v>0.7173997252126818</v>
+      </c>
+      <c r="I17">
+        <v>0.70244563294121187</v>
+      </c>
+      <c r="J17">
+        <v>0.69582731797544273</v>
+      </c>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>1.6622622</v>
+      </c>
+      <c r="G18">
+        <v>1.2939018</v>
+      </c>
+      <c r="H18">
+        <v>1.1440563000000001</v>
+      </c>
+      <c r="I18">
+        <v>1.1609480999999999</v>
+      </c>
+      <c r="J18">
+        <v>1.2111089000000002</v>
+      </c>
+      <c r="K18">
+        <v>1.2745295999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19">
+        <v>1.8056799999999997</v>
+      </c>
+      <c r="G19">
+        <v>1.6639499999999998</v>
+      </c>
+      <c r="H19">
+        <v>1.5494100000000002</v>
+      </c>
+      <c r="I19">
+        <v>1.48804</v>
+      </c>
+      <c r="J19">
+        <v>1.2142599999999999</v>
+      </c>
+      <c r="K19">
+        <v>1.1996800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20">
+        <v>2.62</v>
+      </c>
+      <c r="G20">
+        <v>2.66</v>
+      </c>
+      <c r="H20">
+        <v>2.25</v>
+      </c>
+      <c r="I20">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J20">
+        <v>2.21</v>
+      </c>
+      <c r="K20">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>1.7940518999999999</v>
+      </c>
+      <c r="G21">
+        <v>1.6214952</v>
+      </c>
+      <c r="H21">
+        <v>1.6168518000000001</v>
+      </c>
+      <c r="I21">
+        <v>1.6454933999999999</v>
+      </c>
+      <c r="J21">
+        <v>1.6785074000000002</v>
+      </c>
+      <c r="K21">
+        <v>1.7369753000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>1.849909361129378</v>
+      </c>
+      <c r="G22">
+        <v>1.6794175165664698</v>
+      </c>
+      <c r="H22">
+        <v>1.6318842229895105</v>
+      </c>
+      <c r="I22">
+        <v>1.5683904479487991</v>
+      </c>
+      <c r="J22">
+        <v>1.4659777572063726</v>
+      </c>
+      <c r="K22">
+        <v>1.3612384940752293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23">
+        <v>2.76</v>
+      </c>
+      <c r="G23">
+        <v>2.73</v>
+      </c>
+      <c r="H23">
+        <v>2.74</v>
+      </c>
+      <c r="I23">
+        <v>2.8</v>
+      </c>
+      <c r="J23">
+        <v>2.86</v>
+      </c>
+      <c r="K23">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>7.2621907877088997E-7</v>
+      </c>
+      <c r="G24">
+        <v>3.1449011521496203E-7</v>
+      </c>
+      <c r="H24">
+        <v>3.08633324985784E-7</v>
+      </c>
+      <c r="I24">
+        <v>2.2461929045818199E-7</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25">
+        <v>0.59625600000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.21645500000000001</v>
+      </c>
+      <c r="H25">
+        <v>4.5512900000000002E-2</v>
+      </c>
+      <c r="I25">
+        <v>2.6536299999999999E-2</v>
+      </c>
+      <c r="J25">
+        <v>2.7472E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.9079299999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <v>0.60253170156186686</v>
+      </c>
+      <c r="G26">
+        <v>0.32219529577625178</v>
+      </c>
+      <c r="H26">
+        <v>0.21334541316182123</v>
+      </c>
+      <c r="I26">
+        <v>0.14879627525888497</v>
+      </c>
+      <c r="J26">
+        <v>7.4336796367753164E-4</v>
+      </c>
+      <c r="K26">
+        <v>7.2938237660798676E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27">
+        <v>0.66865999999999992</v>
+      </c>
+      <c r="G27">
+        <v>0.52376</v>
+      </c>
+      <c r="H27">
+        <v>0.434</v>
+      </c>
+      <c r="I27">
+        <v>0.36305999999999999</v>
+      </c>
+      <c r="J27">
+        <v>8.7279999999999996E-2</v>
+      </c>
+      <c r="K27">
+        <v>5.8689999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28">
+        <v>0.90300076833444787</v>
+      </c>
+      <c r="G28">
+        <v>0.5866140771283056</v>
+      </c>
+      <c r="H28">
+        <v>0.5009898030615425</v>
+      </c>
+      <c r="I28">
+        <v>0.49129377097270177</v>
+      </c>
+      <c r="J28">
+        <v>0.4894294410004898</v>
+      </c>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29">
+        <v>8.8704525249013495E-7</v>
+      </c>
+      <c r="G29">
+        <v>7.9461516975867E-7</v>
+      </c>
+      <c r="H29">
+        <v>7.1852857355949096E-7</v>
+      </c>
+      <c r="I29">
+        <v>6.4364028387196206E-7</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30">
+        <v>0.54436626874211569</v>
+      </c>
+      <c r="G30">
+        <v>0.4029460933328784</v>
+      </c>
+      <c r="H30">
+        <v>0.36300287514588603</v>
+      </c>
+      <c r="I30">
+        <v>0.19588633650491755</v>
+      </c>
+      <c r="J30">
+        <v>0.10858216988338375</v>
+      </c>
+      <c r="K30">
+        <v>8.3622640817603844E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31">
+        <v>0.70805114806193326</v>
+      </c>
+      <c r="G31">
+        <v>0.52946665089095901</v>
+      </c>
+      <c r="H31">
+        <v>0.48757385946368742</v>
+      </c>
+      <c r="I31">
+        <v>0.40022847542236628</v>
+      </c>
+      <c r="J31">
+        <v>0.28211946458274939</v>
+      </c>
+      <c r="K31">
+        <v>0.16222398325129953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32">
+        <v>0.72358199999999995</v>
+      </c>
+      <c r="G32">
+        <v>0.53650900000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.506104</v>
+      </c>
+      <c r="J32">
+        <v>0.49472300000000002</v>
+      </c>
+      <c r="K32">
+        <v>0.49760900000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33">
+        <v>1.0705771275542071</v>
+      </c>
+      <c r="G33">
+        <v>0.88868762998331108</v>
+      </c>
+      <c r="H33">
+        <v>0.81603698171586669</v>
+      </c>
+      <c r="I33">
+        <v>0.78975708211140438</v>
+      </c>
+      <c r="J33">
+        <v>0.77196587710935038</v>
+      </c>
+      <c r="K33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{CDD3FA3C-D2A6-44F0-BCFE-2B4F5AEC8FB0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DE54A3-6442-4946-8482-6F700586F591}">
   <dimension ref="A1:L37"/>
   <sheetViews>
@@ -20167,21 +21657,21 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -20219,7 +21709,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -20257,7 +21747,7 @@
         <v>5.4759310000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -20289,7 +21779,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -20327,7 +21817,7 @@
         <v>11.8809</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -20359,7 +21849,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -20391,7 +21881,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -20429,7 +21919,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -20467,7 +21957,7 @@
         <v>0.95728172</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -20499,7 +21989,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -20537,7 +22027,7 @@
         <v>31.800870000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -20569,7 +22059,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -20601,7 +22091,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -20639,7 +22129,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -20677,7 +22167,7 @@
         <v>36.810200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -20709,7 +22199,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -20747,7 +22237,7 @@
         <v>30.142710000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -20779,7 +22269,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -20811,7 +22301,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -20849,7 +22339,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -20887,7 +22377,7 @@
         <v>28.137</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -20918,7 +22408,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -20956,7 +22446,7 @@
         <v>17.473410000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -20987,7 +22477,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -21018,7 +22508,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -21056,7 +22546,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -21094,7 +22584,7 @@
         <v>25.909600000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -21125,7 +22615,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -21163,7 +22653,7 @@
         <v>34.18524</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -21195,7 +22685,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -21226,7 +22716,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -21264,7 +22754,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -21302,7 +22792,7 @@
         <v>26.315341000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -21333,7 +22823,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -21371,7 +22861,7 @@
         <v>34.156620000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -21402,7 +22892,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -21433,7 +22923,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -21481,316 +22971,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39714624-A521-478D-8A69-545672D7BDC0}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1">
-        <v>2025</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2">
-        <v>0.15271899999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.34128179999999997</v>
-      </c>
-      <c r="H2">
-        <v>0.361236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3">
-        <v>0.18899999999999997</v>
-      </c>
-      <c r="G3">
-        <v>0.42700000000000005</v>
-      </c>
-      <c r="H3">
-        <v>0.308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4">
-        <v>9.792107402116626E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.31698236573586602</v>
-      </c>
-      <c r="H4">
-        <v>0.30062274667076816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5">
-        <v>0.1797</v>
-      </c>
-      <c r="G5">
-        <v>0.44309999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.5353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.52359999999999995</v>
-      </c>
-      <c r="H6">
-        <v>0.8145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7">
-        <v>0.1484036</v>
-      </c>
-      <c r="G7">
-        <v>0.29292699999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.35405660000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8">
-        <v>0.114</v>
-      </c>
-      <c r="G8">
-        <v>0.24</v>
-      </c>
-      <c r="H8">
-        <v>0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9">
-        <v>0.1146303343999167</v>
-      </c>
-      <c r="G9">
-        <v>0.22097885890187796</v>
-      </c>
-      <c r="H9">
-        <v>0.29428409521239485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10">
-        <v>0.1648</v>
-      </c>
-      <c r="G10">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.43259999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11">
-        <v>0.17749999999999999</v>
-      </c>
-      <c r="G11">
-        <v>0.4274</v>
-      </c>
-      <c r="H11">
-        <v>0.58609999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -21832,21 +23022,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22267,7 +23443,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -22288,23 +23477,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22325,4 +23498,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-extra/ira_comparison_raw/ira_comparison_updated.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C6545E-1A16-42C6-9C9F-68A8B9A6E823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41A7730-D266-4689-91E2-CF35F85BE134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="830" firstSheet="4" activeTab="7" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" firstSheet="4" activeTab="7" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="generation" sheetId="16" r:id="rId1"/>
@@ -876,30 +876,30 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -958,7 +958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>12.4887</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>12.595700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>12.8887</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>31.444381414149994</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>38.704500244636002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>32.178566482027996</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>24.66827357147509</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>32.215430794665096</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>39.605315111815948</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>23.691685620000005</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>3.9597449999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>3.8828450000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>4.9458029999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>67.779307134056793</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>66.899651319493003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>43.686656892965701</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>26.525600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>27.876999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>28.607499999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>28.565074268765997</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>35.438738063191998</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>36.449421593039993</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>25.863162681742054</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>33.66006762189668</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>41.686308133032462</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>23.691685620000005</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>56.877823280000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>3.9602170000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>3.936925</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>3.9109629999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>67.870024072608601</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>85.7579116462435</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>81.5168570997795</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -4157,21 +4157,21 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>5.4759310000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>11.8809</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0.95728172</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>31.800870000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4559,7 +4559,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>36.810200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>30.142710000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>28.137</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>17.473410000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>25.909600000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>34.18524</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>26.315341000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>34.156620000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -5479,17 +5479,17 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0.361236</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0.30062274667076816</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>0.5353</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0.8145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0.35405660000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>0.29428409521239485</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0.43259999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -5788,29 +5788,29 @@
       <selection activeCell="E1" sqref="E1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>26.515999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>26.605</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>26.838999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>6.9255594521028101</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>8.5907362174843893</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>7.1338227260348699</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>27.20249978278671</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>26.764438880088019</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>26.764438880088019</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0.26047300000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0.26047300000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0.42002800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>70.406508593391806</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>62.069737511263597</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>56.436494487375199</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>28.233000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>28.481000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>28.620999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>6.0567118555990298</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>7.5406811435237104</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>7.74509470429446</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>29.962870566003026</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>29.256523848241148</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>29.256523848241148</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>0.26036799999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>0.26036799999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>0.259268</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>71.467753188640401</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>61.481480292122598</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>54.334213728122599</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -9233,18 +9233,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>5.8723799980000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>7.2743970080000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0.53561357900000006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0.31393416100000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>9.2855571569185642</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>42.122789450325342</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>3.2811637340000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>10.374812432000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>448.23067470386337</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>462.84632055900005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>341.88293394378798</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>286.00747052572103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>86.117518552999996</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>87.189216487999985</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>28.224771360999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>45.247099999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>6.9493</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>6.9493</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>165.77865126051398</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>165.77865126051398</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>113</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>377.10317873299994</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>113</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>539.189656786</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>104.985630633</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>176.49088102500002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>583.53659977500001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>747.81574590700006</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>47.495178993970008</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>33.621564103406001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>3.7867657298880002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>2.1695472420719999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>3.9556141226429999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>163.08760313579896</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>10.919436104515</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>39.368069411496002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>61.203816560618996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>168.138948894522</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>1498.4718595558331</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>776.10531886311992</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>346.66610433580303</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>345.99100203068804</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>228.912165680328</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>339.51913622386201</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>25.799958690114998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>28.810171960273003</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>234.882818206466</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>234.882818206466</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>938.6871748523356</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>113</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>1329.7699330662865</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>2198.172325551528</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -11047,17 +11047,17 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>4.2857142857142858E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>5.7142857142857148E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>7.9214285714285717</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>10.428571428571429</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>63.26428571428572</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>35.48571428571428</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>18.285714285714285</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>7.7428571428571429</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>35.771428571428572</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>17.271428571428572</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>-8.9785714285714295</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>-7.1000000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>-5.3500000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>-4.1500000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>-1.9857142857142858</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>-1.9857142857142858</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>133</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>133</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>134</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -12328,51 +12328,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43"/>
       <c r="C43"/>
     </row>
@@ -12394,28 +12394,28 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="26" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="4"/>
+    <col min="29" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>14.1853</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>1.3368</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>113</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>5.3588452100484147</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>8.4641999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>113</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>4.4636785382157314</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -13015,7 +13015,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>26.985559999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>26.737650000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>113</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>16.11865922343058</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>0.84570741826107831</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>113</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>2.991203808895087</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -13430,7 +13430,7 @@
       </c>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>234.85301000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>2230.2998399999997</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -13576,7 +13576,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -13608,7 +13608,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -13640,7 +13640,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -13672,7 +13672,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
@@ -13704,7 +13704,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -13736,7 +13736,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
@@ -13768,7 +13768,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
@@ -13800,7 +13800,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -13832,7 +13832,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
@@ -13914,19 +13914,19 @@
       <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>3677.2674999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>3735.3089500000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>3296.1133303818037</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>3294.5353357981189</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>3266.9652017974854</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>3266.9652017974854</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>3866.7500998113555</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>3866.7500998113555</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>3352.8143309999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>3352.8143309999996</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>3761.1300888000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>3222.1618882000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>2882.7041010000003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>2839.3911129999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>2140.9580301016745</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>2201.2185532618646</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>0.52845462132782128</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>0.54584647806857178</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -14707,7 +14707,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -14739,7 +14739,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -14771,7 +14771,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -14803,7 +14803,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -14835,7 +14835,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -14867,7 +14867,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>0.5464</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>0.62180000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>5631.08</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>5958.4539999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -15051,7 +15051,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>5137.6952059999994</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>5137.6952059999994</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>5571.3640150000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>5258.0698420000008</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>4608.8733175386515</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>5189.3249895325889</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>6783</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>1146.4998000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>1156.87004</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -15691,7 +15691,7 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>1129.9774901733399</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>1129.9774901733399</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>1316.7229574691614</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>1316.7229574691614</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1217.4959719999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>1217.4959719999999</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>1203.7929636000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>1348.1413406000001</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>995.17260699999997</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>993.86877400000003</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>1672.694509904273</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>2057.6194948441666</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>0.17518715978691762</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>0.17443427971859332</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -16358,7 +16358,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -16390,7 +16390,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -16422,7 +16422,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -16454,7 +16454,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -16486,7 +16486,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>0.17019999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>421.70178199999998</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>421.70178199999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -16706,7 +16706,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>0.2894022176505377</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>0.29284086288225153</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -16814,7 +16814,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -16846,7 +16846,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>0.28719855911960585</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>0.29610699749929525</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -16954,7 +16954,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -16986,7 +16986,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -17018,7 +17018,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -17050,7 +17050,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>0.3382</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>224.83474700000011</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>4</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>242.22219800000005</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>42.089881546606108</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>60.038381027783508</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>9.4449298933148391</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>9.4449298933148391</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>82.542327</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>82.542327000000014</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>8.6098509073857201</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>99.133136485345887</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>276.17741850701765</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>290.18540104574936</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>565.90599999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>565.221</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -17724,7 +17724,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -17756,7 +17756,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>80.407967200279231</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>80.407967200279231</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>594.45734713116724</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>594.45734713116724</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>145.683121</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>145.683121</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>523.89863560000003</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>605.22428620000005</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>162.45490709261429</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>188.03278751465413</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>519.0433590256863</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>640.30154038080877</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>12</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>4</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>0.13599967094113752</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>4</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>0.13674947416264546</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>2.4171329605136006E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -18513,7 +18513,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -18551,7 +18551,7 @@
         <v>0.2974</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>4</v>
       </c>
@@ -18629,7 +18629,7 @@
       <c r="M134" s="8"/>
       <c r="N134" s="8"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -18682,24 +18682,24 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>542.00099999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>513.73500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>504.03872077018599</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>446.248934102666</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>281.81</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>237.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>565.6639759999988</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>561.91441599999894</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>430.56817312125855</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>400.8608308613276</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>1247.8399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>395.06900000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>1293.1152861035</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>445.58029832678199</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>1153.7606291317693</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>761.73269917810103</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>844.16206019677293</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>356.71684510032821</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>598.25432344749174</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>62.07014793075404</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>1528.36</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>449.61999999999989</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>906.24422783061641</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>588.5355894123727</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>1124.6619767613799</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>491.183994655079</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>1000.4238031946613</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -19787,7 +19787,7 @@
         <v>415.69533935001493</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>887.55632000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>821.72208999999987</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>1222.12174799319</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>1063.6926035448</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>1251.0899999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>1124.6299999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>827.1127708460441</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>702.81426574292493</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>810.21700559869782</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -20207,7 +20207,7 @@
         <v>685.1548082249933</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>1352.0200999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>1332.5611999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>1323.6217531392554</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>1326.308905861415</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>476.98016000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>431.33605999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>1133.3649627079108</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>1099.8026285324654</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>1116.76026705139</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>1046.4228069286671</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>407.80137999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>348.92210999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>32.764189726203355</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>385.06488072230201</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>373.2693249801506</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>76.281899999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>75.736000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>-812</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>-812.2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>-771.6</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>-771.6</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>-861.83824144026971</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>-887.95781918520561</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>-685</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>-708.351</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>1306.2932367497699</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -21449,7 +21449,7 @@
         <v>1282.9675605035</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>1097.25</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>1033.69</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>1385.1292751382059</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>1346.0420396172681</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>969.80071663116519</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>900.04639019641581</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>4</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>1030.0434520000001</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
@@ -21825,24 +21825,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41A4F2-0AF7-46C5-AEA4-5A08BC75D43D}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -21880,15 +21880,15 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>142</v>
@@ -21900,33 +21900,24 @@
         <v>83</v>
       </c>
       <c r="G2">
-        <v>295.56</v>
+        <v>-812.2</v>
       </c>
       <c r="H2">
-        <v>261.02</v>
+        <v>-812.2</v>
       </c>
       <c r="I2">
-        <v>249.76</v>
-      </c>
-      <c r="J2">
-        <v>248.07</v>
-      </c>
-      <c r="K2">
-        <v>242.29</v>
-      </c>
-      <c r="L2">
-        <v>237.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-812.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>142</v>
@@ -21938,24 +21929,33 @@
         <v>83</v>
       </c>
       <c r="G3">
-        <v>500.64407527536002</v>
+        <v>-783.69500000000005</v>
       </c>
       <c r="H3">
-        <v>455.13273136217902</v>
+        <v>-791.18499999999995</v>
       </c>
       <c r="I3">
-        <v>447.92957237406102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-758.351</v>
+      </c>
+      <c r="J3">
+        <v>-742.351</v>
+      </c>
+      <c r="K3">
+        <v>-725.351</v>
+      </c>
+      <c r="L3">
+        <v>-708.351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>142</v>
@@ -21967,33 +21967,33 @@
         <v>83</v>
       </c>
       <c r="G4">
-        <v>523.33655237976097</v>
+        <v>-749.08480903111843</v>
       </c>
       <c r="H4">
-        <v>491.90305488677882</v>
+        <v>-762.2784722489472</v>
       </c>
       <c r="I4">
-        <v>468.54095976483626</v>
+        <v>-631.13923612447365</v>
       </c>
       <c r="J4">
-        <v>450.70349699079168</v>
+        <v>-500</v>
       </c>
       <c r="K4">
-        <v>425.51363760393178</v>
+        <v>-400</v>
       </c>
       <c r="L4">
-        <v>400.8608308613276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>142</v>
@@ -22005,36 +22005,36 @@
         <v>83</v>
       </c>
       <c r="G5">
-        <v>549.54399999999998</v>
+        <v>-744.21</v>
       </c>
       <c r="H5">
-        <v>525.86599999999999</v>
+        <v>-749.61</v>
       </c>
       <c r="I5">
-        <v>513.63499999999999</v>
+        <v>-755.05</v>
       </c>
       <c r="J5">
-        <v>515.29700000000003</v>
+        <v>-760.53</v>
       </c>
       <c r="K5">
-        <v>517.49599999999998</v>
+        <v>-766.04</v>
       </c>
       <c r="L5">
-        <v>517.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-771.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>73</v>
@@ -22043,33 +22043,24 @@
         <v>83</v>
       </c>
       <c r="G6">
-        <v>643</v>
+        <v>-812.2</v>
       </c>
       <c r="H6">
-        <v>606</v>
+        <v>-812.2</v>
       </c>
       <c r="I6">
-        <v>570</v>
-      </c>
-      <c r="J6">
-        <v>549</v>
-      </c>
-      <c r="K6">
-        <v>564</v>
-      </c>
-      <c r="L6">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-812.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>143</v>
@@ -22081,24 +22072,33 @@
         <v>83</v>
       </c>
       <c r="G7">
-        <v>497.52229454279501</v>
+        <v>-783.69500000000005</v>
       </c>
       <c r="H7">
-        <v>450.39121012979302</v>
+        <v>-791.18499999999995</v>
       </c>
       <c r="I7">
-        <v>436.99693500135697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-758.351</v>
+      </c>
+      <c r="J7">
+        <v>-742.351</v>
+      </c>
+      <c r="K7">
+        <v>-725.351</v>
+      </c>
+      <c r="L7">
+        <v>-708.351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>143</v>
@@ -22110,27 +22110,27 @@
         <v>83</v>
       </c>
       <c r="G8">
-        <v>523.33655237976097</v>
+        <v>-754.28265236091977</v>
       </c>
       <c r="H8">
-        <v>491.90305488677882</v>
+        <v>-803.86121888735795</v>
       </c>
       <c r="I8">
-        <v>468.54095976483626</v>
+        <v>-651.93060944367903</v>
       </c>
       <c r="J8">
-        <v>450.70349699079168</v>
+        <v>-500</v>
       </c>
       <c r="K8">
-        <v>425.51363760393178</v>
+        <v>-400</v>
       </c>
       <c r="L8">
-        <v>400.8608308613276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -22139,7 +22139,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>73</v>
@@ -22148,27 +22148,27 @@
         <v>83</v>
       </c>
       <c r="G9">
-        <v>549.23800000000006</v>
+        <v>295.56</v>
       </c>
       <c r="H9">
-        <v>524.351</v>
+        <v>261.02</v>
       </c>
       <c r="I9">
-        <v>510.57899999999995</v>
+        <v>249.76</v>
       </c>
       <c r="J9">
-        <v>510.28100000000006</v>
+        <v>248.07</v>
       </c>
       <c r="K9">
-        <v>510.43200000000002</v>
+        <v>242.29</v>
       </c>
       <c r="L9">
-        <v>509.89099999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>237.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -22177,7 +22177,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>73</v>
@@ -22186,33 +22186,24 @@
         <v>83</v>
       </c>
       <c r="G10">
-        <v>641</v>
+        <v>500.64407527536002</v>
       </c>
       <c r="H10">
-        <v>583</v>
+        <v>455.13273136217902</v>
       </c>
       <c r="I10">
-        <v>512</v>
-      </c>
-      <c r="J10">
-        <v>460</v>
-      </c>
-      <c r="K10">
-        <v>444.5</v>
-      </c>
-      <c r="L10">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>447.92957237406102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>142</v>
@@ -22224,24 +22215,33 @@
         <v>83</v>
       </c>
       <c r="G11">
-        <v>1041.9274621024899</v>
+        <v>523.33655237976097</v>
       </c>
       <c r="H11">
-        <v>763.15217862402096</v>
+        <v>491.90305488677882</v>
       </c>
       <c r="I11">
-        <v>445.85411382178899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>468.54095976483626</v>
+      </c>
+      <c r="J11">
+        <v>450.70349699079168</v>
+      </c>
+      <c r="K11">
+        <v>425.51363760393178</v>
+      </c>
+      <c r="L11">
+        <v>400.8608308613276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>142</v>
@@ -22253,33 +22253,33 @@
         <v>83</v>
       </c>
       <c r="G12">
-        <v>1208.4100000000001</v>
+        <v>549.54399999999998</v>
       </c>
       <c r="H12">
-        <v>669.56899999999996</v>
+        <v>525.86599999999999</v>
       </c>
       <c r="I12">
-        <v>385.67599999999999</v>
+        <v>513.63499999999999</v>
       </c>
       <c r="J12">
-        <v>222.4</v>
+        <v>515.29700000000003</v>
       </c>
       <c r="K12">
-        <v>275.09300000000002</v>
+        <v>517.49599999999998</v>
       </c>
       <c r="L12">
-        <v>377.22500000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>517.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>142</v>
@@ -22291,33 +22291,36 @@
         <v>83</v>
       </c>
       <c r="G13">
-        <v>1211.3178261532926</v>
+        <v>643</v>
       </c>
       <c r="H13">
-        <v>902.00074549487829</v>
+        <v>606</v>
       </c>
       <c r="I13">
-        <v>815.74768669147727</v>
+        <v>570</v>
       </c>
       <c r="J13">
-        <v>816.55239677354018</v>
+        <v>549</v>
       </c>
       <c r="K13">
-        <v>799.39403379459679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="L13">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>73</v>
@@ -22326,30 +22329,27 @@
         <v>83</v>
       </c>
       <c r="G14">
-        <v>1342.9315606273601</v>
+        <v>497.52229454279501</v>
       </c>
       <c r="H14">
-        <v>928.605215817616</v>
+        <v>450.39121012979302</v>
       </c>
       <c r="I14">
-        <v>717.78699861083601</v>
-      </c>
-      <c r="J14">
-        <v>761.16895378628897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>436.99693500135697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>73</v>
@@ -22358,36 +22358,36 @@
         <v>83</v>
       </c>
       <c r="G15">
-        <v>1355.4024100248025</v>
+        <v>523.33655237976097</v>
       </c>
       <c r="H15">
-        <v>1155.6211614855497</v>
+        <v>491.90305488677882</v>
       </c>
       <c r="I15">
-        <v>950.89407043987251</v>
+        <v>468.54095976483626</v>
       </c>
       <c r="J15">
-        <v>1009.6267800787494</v>
+        <v>450.70349699079168</v>
       </c>
       <c r="K15">
-        <v>696.06316634211532</v>
+        <v>425.51363760393178</v>
       </c>
       <c r="L15">
-        <v>645.9733175910618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>400.8608308613276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>73</v>
@@ -22396,36 +22396,36 @@
         <v>83</v>
       </c>
       <c r="G16">
-        <v>1366</v>
+        <v>549.23800000000006</v>
       </c>
       <c r="H16">
-        <v>694</v>
+        <v>524.351</v>
       </c>
       <c r="I16">
-        <v>337</v>
+        <v>510.57899999999995</v>
       </c>
       <c r="J16">
-        <v>508</v>
+        <v>510.28100000000006</v>
       </c>
       <c r="K16">
-        <v>664</v>
+        <v>510.43200000000002</v>
       </c>
       <c r="L16">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>509.89099999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>73</v>
@@ -22434,36 +22434,36 @@
         <v>83</v>
       </c>
       <c r="G17">
-        <v>1391.03</v>
+        <v>641</v>
       </c>
       <c r="H17">
-        <v>1372.5</v>
+        <v>583</v>
       </c>
       <c r="I17">
-        <v>815.56999999999994</v>
+        <v>512</v>
       </c>
       <c r="J17">
-        <v>673.55</v>
+        <v>460</v>
       </c>
       <c r="K17">
-        <v>571.62999999999988</v>
+        <v>444.5</v>
       </c>
       <c r="L17">
-        <v>458.40000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>73</v>
@@ -22472,33 +22472,36 @@
         <v>83</v>
       </c>
       <c r="G18">
-        <v>742.19717192424764</v>
+        <v>800.5</v>
       </c>
       <c r="H18">
-        <v>675.21022364300177</v>
+        <v>745</v>
       </c>
       <c r="I18">
-        <v>666.91752347378508</v>
+        <v>650</v>
       </c>
       <c r="J18">
-        <v>633.27511345720677</v>
+        <v>669</v>
       </c>
       <c r="K18">
-        <v>608.70664982067274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+      <c r="L18">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>73</v>
@@ -22507,27 +22510,36 @@
         <v>83</v>
       </c>
       <c r="G19">
-        <v>962.41714320653205</v>
+        <v>891.72441000000003</v>
       </c>
       <c r="H19">
-        <v>594.27299553785895</v>
+        <v>851.38230600000009</v>
       </c>
       <c r="I19">
-        <v>437.13851892309498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>770.93087200000002</v>
+      </c>
+      <c r="J19">
+        <v>792.64170399999989</v>
+      </c>
+      <c r="K19">
+        <v>814.48530900000003</v>
+      </c>
+      <c r="L19">
+        <v>843.19482099999982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>73</v>
@@ -22536,30 +22548,36 @@
         <v>83</v>
       </c>
       <c r="G20">
-        <v>1052.48814828013</v>
+        <v>923.51570682181114</v>
       </c>
       <c r="H20">
-        <v>214.76678556476401</v>
+        <v>929.87779969934127</v>
       </c>
       <c r="I20">
-        <v>185.874064997164</v>
+        <v>863.9506377418968</v>
       </c>
       <c r="J20">
-        <v>246.19328955876099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>810.55248008097146</v>
+      </c>
+      <c r="K20">
+        <v>736.99812683475989</v>
+      </c>
+      <c r="L20">
+        <v>685.1548082249933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>73</v>
@@ -22568,36 +22586,36 @@
         <v>83</v>
       </c>
       <c r="G21">
-        <v>1078.3399999999999</v>
+        <v>1050.49</v>
       </c>
       <c r="H21">
-        <v>339.28199999999998</v>
+        <v>1074.7</v>
       </c>
       <c r="I21">
-        <v>308.89699999999999</v>
+        <v>1073.18</v>
       </c>
       <c r="J21">
-        <v>278.38499999999999</v>
+        <v>1104.0999999999999</v>
       </c>
       <c r="K21">
-        <v>328.71199999999999</v>
+        <v>1118.43</v>
       </c>
       <c r="L21">
-        <v>440.06099999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1123.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>73</v>
@@ -22606,33 +22624,24 @@
         <v>83</v>
       </c>
       <c r="G22">
-        <v>1305.7327385480012</v>
+        <v>1073.64525551973</v>
       </c>
       <c r="H22">
-        <v>1062.4192763546064</v>
+        <v>1016.65622914748</v>
       </c>
       <c r="I22">
-        <v>309.21262852145884</v>
-      </c>
-      <c r="J22">
-        <v>384.18779162422186</v>
-      </c>
-      <c r="K22">
-        <v>279.02796169020644</v>
-      </c>
-      <c r="L22">
-        <v>301.86728216551074</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1067.93671480221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>143</v>
@@ -22644,27 +22653,27 @@
         <v>83</v>
       </c>
       <c r="G23">
-        <v>1329.5</v>
+        <v>778</v>
       </c>
       <c r="H23">
-        <v>676</v>
+        <v>732</v>
       </c>
       <c r="I23">
-        <v>324</v>
+        <v>594</v>
       </c>
       <c r="J23">
-        <v>516</v>
+        <v>647</v>
       </c>
       <c r="K23">
-        <v>650.5</v>
+        <v>682</v>
       </c>
       <c r="L23">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
@@ -22673,7 +22682,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>73</v>
@@ -22682,27 +22691,27 @@
         <v>83</v>
       </c>
       <c r="G24">
-        <v>800.5</v>
+        <v>883.12172900000007</v>
       </c>
       <c r="H24">
-        <v>745</v>
+        <v>830.09433200000012</v>
       </c>
       <c r="I24">
-        <v>650</v>
+        <v>743.25281999999993</v>
       </c>
       <c r="J24">
-        <v>669</v>
+        <v>762.15605499999992</v>
       </c>
       <c r="K24">
-        <v>709</v>
+        <v>781.8281750000001</v>
       </c>
       <c r="L24">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>808.03834599999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>78</v>
@@ -22711,7 +22720,7 @@
         <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>73</v>
@@ -22720,27 +22729,27 @@
         <v>83</v>
       </c>
       <c r="G25">
-        <v>891.72441000000003</v>
+        <v>923.51570682181114</v>
       </c>
       <c r="H25">
-        <v>851.38230600000009</v>
+        <v>929.87779969934127</v>
       </c>
       <c r="I25">
-        <v>770.93087200000002</v>
+        <v>863.9506377418968</v>
       </c>
       <c r="J25">
-        <v>792.64170399999989</v>
+        <v>810.55248008097146</v>
       </c>
       <c r="K25">
-        <v>814.48530900000003</v>
+        <v>736.99812683475989</v>
       </c>
       <c r="L25">
-        <v>843.19482099999982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>685.1548082249933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -22749,7 +22758,7 @@
         <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>73</v>
@@ -22758,33 +22767,24 @@
         <v>83</v>
       </c>
       <c r="G26">
-        <v>923.51570682181114</v>
+        <v>1065.62680453743</v>
       </c>
       <c r="H26">
-        <v>929.87779969934127</v>
+        <v>1005.42831503926</v>
       </c>
       <c r="I26">
-        <v>863.9506377418968</v>
-      </c>
-      <c r="J26">
-        <v>810.55248008097146</v>
-      </c>
-      <c r="K26">
-        <v>736.99812683475989</v>
-      </c>
-      <c r="L26">
-        <v>685.1548082249933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1048.17817506027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>142</v>
@@ -22796,33 +22796,33 @@
         <v>83</v>
       </c>
       <c r="G27">
-        <v>1050.49</v>
+        <v>1488.8</v>
       </c>
       <c r="H27">
-        <v>1074.7</v>
+        <v>1381.39</v>
       </c>
       <c r="I27">
-        <v>1073.18</v>
+        <v>1284.25</v>
       </c>
       <c r="J27">
-        <v>1104.0999999999999</v>
+        <v>1203.81</v>
       </c>
       <c r="K27">
-        <v>1118.43</v>
+        <v>1181.74</v>
       </c>
       <c r="L27">
-        <v>1123.57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1034.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>142</v>
@@ -22834,27 +22834,27 @@
         <v>83</v>
       </c>
       <c r="G28">
-        <v>1073.64525551973</v>
+        <v>1540.0619202821799</v>
       </c>
       <c r="H28">
-        <v>1016.65622914748</v>
+        <v>1364.0248866039101</v>
       </c>
       <c r="I28">
-        <v>1067.93671480221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1292.3644200897299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>73</v>
@@ -22863,36 +22863,36 @@
         <v>83</v>
       </c>
       <c r="G29">
-        <v>778</v>
+        <v>1570.2122710000001</v>
       </c>
       <c r="H29">
-        <v>732</v>
+        <v>1387.1021230000001</v>
       </c>
       <c r="I29">
-        <v>594</v>
+        <v>1212.090543</v>
       </c>
       <c r="J29">
-        <v>647</v>
+        <v>1110.1941369999997</v>
       </c>
       <c r="K29">
-        <v>682</v>
+        <v>1068.8725279999999</v>
       </c>
       <c r="L29">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1048.6645590000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>73</v>
@@ -22901,36 +22901,36 @@
         <v>83</v>
       </c>
       <c r="G30">
-        <v>883.12172900000007</v>
+        <v>1686.7955978365521</v>
       </c>
       <c r="H30">
-        <v>830.09433200000012</v>
+        <v>1499.1674052122032</v>
       </c>
       <c r="I30">
-        <v>743.25281999999993</v>
+        <v>1325.6630347768523</v>
       </c>
       <c r="J30">
-        <v>762.15605499999992</v>
+        <v>1155.4166686663148</v>
       </c>
       <c r="K30">
-        <v>781.8281750000001</v>
+        <v>1020.3509424738604</v>
       </c>
       <c r="L30">
-        <v>808.03834599999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>900.04639019641581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>73</v>
@@ -22939,33 +22939,33 @@
         <v>83</v>
       </c>
       <c r="G31">
-        <v>923.51570682181114</v>
+        <v>1804</v>
       </c>
       <c r="H31">
-        <v>929.87779969934127</v>
+        <v>1584</v>
       </c>
       <c r="I31">
-        <v>863.9506377418968</v>
+        <v>1320</v>
       </c>
       <c r="J31">
-        <v>810.55248008097146</v>
+        <v>1097</v>
       </c>
       <c r="K31">
-        <v>736.99812683475989</v>
+        <v>887.5</v>
       </c>
       <c r="L31">
-        <v>685.1548082249933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>143</v>
@@ -22977,272 +22977,272 @@
         <v>83</v>
       </c>
       <c r="G32">
-        <v>1065.62680453743</v>
+        <v>1537.21131226335</v>
       </c>
       <c r="H32">
-        <v>1005.42831503926</v>
+        <v>1350.0267801651901</v>
       </c>
       <c r="I32">
-        <v>1048.17817506027</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1270.2377534667201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G33">
-        <v>425.74782000000005</v>
+        <v>1569.9458890000001</v>
       </c>
       <c r="H33">
-        <v>414.17162000000002</v>
+        <v>1373.2821260000001</v>
       </c>
       <c r="I33">
-        <v>411.55507999999998</v>
+        <v>1179.236756</v>
       </c>
       <c r="J33">
-        <v>410.96929999999998</v>
+        <v>1075.2497959999998</v>
       </c>
       <c r="K33">
-        <v>414.86063999999999</v>
+        <v>1056.8692879999999</v>
       </c>
       <c r="L33">
-        <v>425.71686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1035.2936760000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G34">
-        <v>1229.8234000000002</v>
+        <v>1686.7955978365521</v>
       </c>
       <c r="H34">
-        <v>1225.7956000000004</v>
+        <v>1499.1674052122032</v>
       </c>
       <c r="I34">
-        <v>1263.0052999999998</v>
+        <v>1325.6630347768523</v>
       </c>
       <c r="J34">
-        <v>1279.5864000000001</v>
+        <v>1155.4166686663148</v>
       </c>
       <c r="K34">
-        <v>1302.1853999999998</v>
+        <v>1020.3509424738604</v>
       </c>
       <c r="L34">
-        <v>1337.4547000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>900.04639019641581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G35">
-        <v>1316.5571428651556</v>
+        <v>1780.5</v>
       </c>
       <c r="H35">
-        <v>1257.413892716693</v>
+        <v>1473</v>
       </c>
       <c r="I35">
-        <v>1246.1256230436798</v>
+        <v>1046</v>
       </c>
       <c r="J35">
-        <v>1053.3400614015766</v>
+        <v>729</v>
       </c>
       <c r="K35">
-        <v>1066.9749683376917</v>
+        <v>586</v>
       </c>
       <c r="L35">
-        <v>1080.6098752738067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G36">
-        <v>1340.2600788088703</v>
+        <v>1041.9274621024899</v>
       </c>
       <c r="H36">
-        <v>1298.9020438374814</v>
+        <v>763.15217862402096</v>
       </c>
       <c r="I36">
-        <v>1326.308905861415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>445.85411382178899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G37">
-        <v>1228.6823999999997</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="H37">
-        <v>1229.3668000000002</v>
+        <v>669.56899999999996</v>
       </c>
       <c r="I37">
-        <v>1263.1947</v>
+        <v>385.67599999999999</v>
       </c>
       <c r="J37">
-        <v>1274.5073000000002</v>
+        <v>222.4</v>
       </c>
       <c r="K37">
-        <v>1295.2622999999994</v>
+        <v>275.09300000000002</v>
       </c>
       <c r="L37">
-        <v>1328.8084000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>377.22500000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G38">
-        <v>1283.4829301232103</v>
+        <v>1211.3178261532926</v>
       </c>
       <c r="H38">
-        <v>1207.8208543892902</v>
+        <v>902.00074549487829</v>
       </c>
       <c r="I38">
-        <v>1200.9180422562313</v>
+        <v>815.74768669147727</v>
       </c>
       <c r="J38">
-        <v>1010.8439181038185</v>
+        <v>816.55239677354018</v>
       </c>
       <c r="K38">
-        <v>1019.8749938037445</v>
-      </c>
-      <c r="L38">
-        <v>1028.9060695036706</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>799.39403379459679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G39">
-        <v>1340.2600788088703</v>
+        <v>1342.9315606273601</v>
       </c>
       <c r="H39">
-        <v>1298.9020438374814</v>
+        <v>928.605215817616</v>
       </c>
       <c r="I39">
-        <v>1326.308905861415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>717.78699861083601</v>
+      </c>
+      <c r="J39">
+        <v>761.16895378628897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>142</v>
@@ -23254,33 +23254,33 @@
         <v>83</v>
       </c>
       <c r="G40">
-        <v>22.78</v>
+        <v>1355.4024100248025</v>
       </c>
       <c r="H40">
-        <v>20.64</v>
+        <v>1155.6211614855497</v>
       </c>
       <c r="I40">
-        <v>28.45</v>
+        <v>950.89407043987251</v>
       </c>
       <c r="J40">
-        <v>28.42</v>
+        <v>1009.6267800787494</v>
       </c>
       <c r="K40">
-        <v>28.98</v>
+        <v>696.06316634211532</v>
       </c>
       <c r="L40">
-        <v>28.83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>645.9733175910618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>142</v>
@@ -23292,24 +23292,33 @@
         <v>83</v>
       </c>
       <c r="G41">
-        <v>31.20786780421605</v>
+        <v>1366</v>
       </c>
       <c r="H41">
-        <v>28.28541433424212</v>
+        <v>694</v>
       </c>
       <c r="I41">
-        <v>26.751583032119839</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="J41">
+        <v>508</v>
+      </c>
+      <c r="K41">
+        <v>664</v>
+      </c>
+      <c r="L41">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>142</v>
@@ -23321,36 +23330,36 @@
         <v>83</v>
       </c>
       <c r="G42">
-        <v>102</v>
+        <v>1391.03</v>
       </c>
       <c r="H42">
-        <v>106</v>
+        <v>1372.5</v>
       </c>
       <c r="I42">
-        <v>110</v>
+        <v>815.56999999999994</v>
       </c>
       <c r="J42">
-        <v>115</v>
+        <v>673.55</v>
       </c>
       <c r="K42">
-        <v>120</v>
+        <v>571.62999999999988</v>
       </c>
       <c r="L42">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>458.40000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>73</v>
@@ -23359,33 +23368,30 @@
         <v>83</v>
       </c>
       <c r="G43">
-        <v>323.10869000000002</v>
+        <v>742.19717192424764</v>
       </c>
       <c r="H43">
-        <v>302.87349399999999</v>
+        <v>675.21022364300177</v>
       </c>
       <c r="I43">
-        <v>300.40902799999998</v>
+        <v>666.91752347378508</v>
       </c>
       <c r="J43">
-        <v>320.88389599999999</v>
+        <v>633.27511345720677</v>
       </c>
       <c r="K43">
-        <v>343.29029100000002</v>
-      </c>
-      <c r="L43">
-        <v>363.46697899999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>608.70664982067274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>143</v>
@@ -23397,24 +23403,24 @@
         <v>83</v>
       </c>
       <c r="G44">
-        <v>30.664847857244808</v>
+        <v>962.41714320653205</v>
       </c>
       <c r="H44">
-        <v>27.139926101324377</v>
+        <v>594.27299553785895</v>
       </c>
       <c r="I44">
-        <v>26.354868778730911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>437.13851892309498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>143</v>
@@ -23426,33 +23432,27 @@
         <v>83</v>
       </c>
       <c r="G45">
-        <v>102</v>
+        <v>1052.48814828013</v>
       </c>
       <c r="H45">
-        <v>106</v>
+        <v>214.76678556476401</v>
       </c>
       <c r="I45">
-        <v>110</v>
+        <v>185.874064997164</v>
       </c>
       <c r="J45">
-        <v>115</v>
-      </c>
-      <c r="K45">
-        <v>120</v>
-      </c>
-      <c r="L45">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>246.19328955876099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>143</v>
@@ -23464,36 +23464,36 @@
         <v>83</v>
       </c>
       <c r="G46">
-        <v>321.29884099999998</v>
+        <v>1078.3399999999999</v>
       </c>
       <c r="H46">
-        <v>297.49198799999999</v>
+        <v>339.28199999999998</v>
       </c>
       <c r="I46">
-        <v>281.25558000000001</v>
+        <v>308.89699999999999</v>
       </c>
       <c r="J46">
-        <v>299.02974499999999</v>
+        <v>278.38499999999999</v>
       </c>
       <c r="K46">
-        <v>319.884525</v>
+        <v>328.71199999999999</v>
       </c>
       <c r="L46">
-        <v>338.61085400000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>440.06099999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
@@ -23502,36 +23502,36 @@
         <v>83</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1305.7327385480012</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1062.4192763546064</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>309.21262852145884</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>384.18779162422186</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>279.02796169020644</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>301.86728216551074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
@@ -23540,36 +23540,36 @@
         <v>83</v>
       </c>
       <c r="G48">
-        <v>10.182</v>
+        <v>1329.5</v>
       </c>
       <c r="H48">
-        <v>12.1434</v>
+        <v>676</v>
       </c>
       <c r="I48">
-        <v>71.996099999999998</v>
+        <v>324</v>
       </c>
       <c r="J48">
-        <v>73.596900000000005</v>
+        <v>516</v>
       </c>
       <c r="K48">
-        <v>74.480599999999995</v>
+        <v>650.5</v>
       </c>
       <c r="L48">
-        <v>75.912300000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>73</v>
@@ -23578,33 +23578,33 @@
         <v>83</v>
       </c>
       <c r="G49">
-        <v>10.016629999999999</v>
+        <v>22.78</v>
       </c>
       <c r="H49">
-        <v>11.71588</v>
+        <v>20.64</v>
       </c>
       <c r="I49">
-        <v>71.641999999999996</v>
+        <v>28.45</v>
       </c>
       <c r="J49">
-        <v>73.068600000000004</v>
+        <v>28.42</v>
       </c>
       <c r="K49">
-        <v>74.013800000000003</v>
+        <v>28.98</v>
       </c>
       <c r="L49">
-        <v>75.489499999999992</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>142</v>
@@ -23616,24 +23616,24 @@
         <v>83</v>
       </c>
       <c r="G50">
-        <v>-812.2</v>
+        <v>31.20786780421605</v>
       </c>
       <c r="H50">
-        <v>-812.2</v>
+        <v>28.28541433424212</v>
       </c>
       <c r="I50">
-        <v>-812.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.751583032119839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>142</v>
@@ -23645,33 +23645,33 @@
         <v>83</v>
       </c>
       <c r="G51">
-        <v>-783.69500000000005</v>
+        <v>102</v>
       </c>
       <c r="H51">
-        <v>-791.18499999999995</v>
+        <v>106</v>
       </c>
       <c r="I51">
-        <v>-758.351</v>
+        <v>110</v>
       </c>
       <c r="J51">
-        <v>-742.351</v>
+        <v>115</v>
       </c>
       <c r="K51">
-        <v>-725.351</v>
+        <v>120</v>
       </c>
       <c r="L51">
-        <v>-708.351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>142</v>
@@ -23683,36 +23683,36 @@
         <v>83</v>
       </c>
       <c r="G52">
-        <v>-749.08480903111843</v>
+        <v>323.10869000000002</v>
       </c>
       <c r="H52">
-        <v>-762.2784722489472</v>
+        <v>302.87349399999999</v>
       </c>
       <c r="I52">
-        <v>-631.13923612447365</v>
+        <v>300.40902799999998</v>
       </c>
       <c r="J52">
-        <v>-500</v>
+        <v>320.88389599999999</v>
       </c>
       <c r="K52">
-        <v>-400</v>
+        <v>343.29029100000002</v>
       </c>
       <c r="L52">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>363.46697899999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
@@ -23721,33 +23721,24 @@
         <v>83</v>
       </c>
       <c r="G53">
-        <v>-744.21</v>
+        <v>30.664847857244808</v>
       </c>
       <c r="H53">
-        <v>-749.61</v>
+        <v>27.139926101324377</v>
       </c>
       <c r="I53">
-        <v>-755.05</v>
-      </c>
-      <c r="J53">
-        <v>-760.53</v>
-      </c>
-      <c r="K53">
-        <v>-766.04</v>
-      </c>
-      <c r="L53">
-        <v>-771.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.354868778730911</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>143</v>
@@ -23759,24 +23750,33 @@
         <v>83</v>
       </c>
       <c r="G54">
-        <v>-812.2</v>
+        <v>102</v>
       </c>
       <c r="H54">
-        <v>-812.2</v>
+        <v>106</v>
       </c>
       <c r="I54">
-        <v>-812.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J54">
+        <v>115</v>
+      </c>
+      <c r="K54">
+        <v>120</v>
+      </c>
+      <c r="L54">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>143</v>
@@ -23788,36 +23788,36 @@
         <v>83</v>
       </c>
       <c r="G55">
-        <v>-783.69500000000005</v>
+        <v>321.29884099999998</v>
       </c>
       <c r="H55">
-        <v>-791.18499999999995</v>
+        <v>297.49198799999999</v>
       </c>
       <c r="I55">
-        <v>-758.351</v>
+        <v>281.25558000000001</v>
       </c>
       <c r="J55">
-        <v>-742.351</v>
+        <v>299.02974499999999</v>
       </c>
       <c r="K55">
-        <v>-725.351</v>
+        <v>319.884525</v>
       </c>
       <c r="L55">
-        <v>-708.351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338.61085400000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>73</v>
@@ -23826,33 +23826,33 @@
         <v>83</v>
       </c>
       <c r="G56">
-        <v>-754.28265236091977</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>-803.86121888735795</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>-651.93060944367903</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>142</v>
@@ -23864,36 +23864,36 @@
         <v>83</v>
       </c>
       <c r="G57">
-        <v>1488.8</v>
+        <v>10.182</v>
       </c>
       <c r="H57">
-        <v>1381.39</v>
+        <v>12.1434</v>
       </c>
       <c r="I57">
-        <v>1284.25</v>
+        <v>71.996099999999998</v>
       </c>
       <c r="J57">
-        <v>1203.81</v>
+        <v>73.596900000000005</v>
       </c>
       <c r="K57">
-        <v>1181.74</v>
+        <v>74.480599999999995</v>
       </c>
       <c r="L57">
-        <v>1034.24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75.912300000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>73</v>
@@ -23902,276 +23902,276 @@
         <v>83</v>
       </c>
       <c r="G58">
-        <v>1540.0619202821799</v>
+        <v>10.016629999999999</v>
       </c>
       <c r="H58">
-        <v>1364.0248866039101</v>
+        <v>11.71588</v>
       </c>
       <c r="I58">
-        <v>1292.3644200897299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71.641999999999996</v>
+      </c>
+      <c r="J58">
+        <v>73.068600000000004</v>
+      </c>
+      <c r="K58">
+        <v>74.013800000000003</v>
+      </c>
+      <c r="L58">
+        <v>75.489499999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G59">
-        <v>1570.2122710000001</v>
+        <v>425.74782000000005</v>
       </c>
       <c r="H59">
-        <v>1387.1021230000001</v>
+        <v>414.17162000000002</v>
       </c>
       <c r="I59">
-        <v>1212.090543</v>
+        <v>411.55507999999998</v>
       </c>
       <c r="J59">
-        <v>1110.1941369999997</v>
+        <v>410.96929999999998</v>
       </c>
       <c r="K59">
-        <v>1068.8725279999999</v>
+        <v>414.86063999999999</v>
       </c>
       <c r="L59">
-        <v>1048.6645590000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>425.71686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G60">
-        <v>1686.7955978365521</v>
+        <v>1229.8234000000002</v>
       </c>
       <c r="H60">
-        <v>1499.1674052122032</v>
+        <v>1225.7956000000004</v>
       </c>
       <c r="I60">
-        <v>1325.6630347768523</v>
+        <v>1263.0052999999998</v>
       </c>
       <c r="J60">
-        <v>1155.4166686663148</v>
+        <v>1279.5864000000001</v>
       </c>
       <c r="K60">
-        <v>1020.3509424738604</v>
+        <v>1302.1853999999998</v>
       </c>
       <c r="L60">
-        <v>900.04639019641581</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1337.4547000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G61">
-        <v>1804</v>
+        <v>1316.5571428651556</v>
       </c>
       <c r="H61">
-        <v>1584</v>
+        <v>1257.413892716693</v>
       </c>
       <c r="I61">
-        <v>1320</v>
+        <v>1246.1256230436798</v>
       </c>
       <c r="J61">
-        <v>1097</v>
+        <v>1053.3400614015766</v>
       </c>
       <c r="K61">
-        <v>887.5</v>
+        <v>1066.9749683376917</v>
       </c>
       <c r="L61">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1080.6098752738067</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G62">
-        <v>1537.21131226335</v>
+        <v>1340.2600788088703</v>
       </c>
       <c r="H62">
-        <v>1350.0267801651901</v>
+        <v>1298.9020438374814</v>
       </c>
       <c r="I62">
-        <v>1270.2377534667201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1326.308905861415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G63">
-        <v>1569.9458890000001</v>
+        <v>1228.6823999999997</v>
       </c>
       <c r="H63">
-        <v>1373.2821260000001</v>
+        <v>1229.3668000000002</v>
       </c>
       <c r="I63">
-        <v>1179.236756</v>
+        <v>1263.1947</v>
       </c>
       <c r="J63">
-        <v>1075.2497959999998</v>
+        <v>1274.5073000000002</v>
       </c>
       <c r="K63">
-        <v>1056.8692879999999</v>
+        <v>1295.2622999999994</v>
       </c>
       <c r="L63">
-        <v>1035.2936760000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1328.8084000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G64">
-        <v>1686.7955978365521</v>
+        <v>1283.4829301232103</v>
       </c>
       <c r="H64">
-        <v>1499.1674052122032</v>
+        <v>1207.8208543892902</v>
       </c>
       <c r="I64">
-        <v>1325.6630347768523</v>
+        <v>1200.9180422562313</v>
       </c>
       <c r="J64">
-        <v>1155.4166686663148</v>
+        <v>1010.8439181038185</v>
       </c>
       <c r="K64">
-        <v>1020.3509424738604</v>
+        <v>1019.8749938037445</v>
       </c>
       <c r="L64">
-        <v>900.04639019641581</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1028.9060695036706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G65">
-        <v>1780.5</v>
+        <v>1340.2600788088703</v>
       </c>
       <c r="H65">
-        <v>1473</v>
+        <v>1298.9020438374814</v>
       </c>
       <c r="I65">
-        <v>1046</v>
-      </c>
-      <c r="J65">
-        <v>729</v>
-      </c>
-      <c r="K65">
-        <v>586</v>
-      </c>
-      <c r="L65">
-        <v>443</v>
+        <v>1326.308905861415</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{6B41A4F2-0AF7-46C5-AEA4-5A08BC75D43D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L65">
-      <sortCondition ref="B1"/>
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24186,18 +24186,18 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>5.14907</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -24337,7 +24337,7 @@
         <v>7.5111488999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>5.8416028953330104</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>7.9449733</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>2.7780478749654904E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>9.7063984025853346E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
@@ -24541,7 +24541,7 @@
         <v>0.13275200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>141</v>
       </c>
@@ -24576,7 +24576,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>141</v>
       </c>
@@ -24609,7 +24609,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>141</v>
       </c>
@@ -24640,7 +24640,7 @@
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
@@ -24675,7 +24675,7 @@
         <v>0.10340554742487192</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>141</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>0.59092100000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>0.31429332733799759</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>141</v>
       </c>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>136</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>1.2745295999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>1.1996800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>136</v>
       </c>
@@ -24918,7 +24918,7 @@
         <v>1.7369753000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>136</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>1.3612384940752293</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>136</v>
       </c>
@@ -24988,7 +24988,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
@@ -25019,7 +25019,7 @@
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>138</v>
       </c>
@@ -25054,7 +25054,7 @@
         <v>2.9079299999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -25089,7 +25089,7 @@
         <v>7.2938237660798676E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
@@ -25124,7 +25124,7 @@
         <v>5.8689999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
@@ -25157,7 +25157,7 @@
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -25188,7 +25188,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>8.3622640817603844E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>138</v>
       </c>
@@ -25258,7 +25258,7 @@
         <v>0.16222398325129953</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>138</v>
       </c>
@@ -25293,7 +25293,7 @@
         <v>0.49760900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>138</v>
       </c>
@@ -25337,20 +25337,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25771,6 +25757,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -25814,22 +25814,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25848,6 +25832,22 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data-extra/ira_comparison_raw/ira_comparison_updated.xlsx
+++ b/data-extra/ira_comparison_raw/ira_comparison_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-extra\ira_comparison_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41A7730-D266-4689-91E2-CF35F85BE134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503E061-31DB-44C1-9421-B52C527214D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" firstSheet="4" activeTab="7" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="830" activeTab="1" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
     <sheet name="generation" sheetId="16" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="ev share" sheetId="25" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">capacity!$A$1:$T$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'capacity change'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ccs!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'elc demand'!$A$1:$L$1</definedName>
@@ -873,7 +874,7 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,10 +1138,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>2025</v>
@@ -1149,57 +1150,57 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>744.80770841399988</v>
+        <v>757.77499999999998</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>24.282699999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>296.36114309239997</v>
+        <v>284.76400000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>40.137137666754796</v>
+        <v>37.614600000000003</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>497.22615679470152</v>
+        <v>608.779</v>
       </c>
       <c r="K5" s="2">
-        <v>4.0298405717999995E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1362.4675278695458</v>
+        <v>1533.28</v>
       </c>
       <c r="M5" s="2">
-        <v>229.41214669135238</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>42.940190952748907</v>
+        <v>150.77099999999999</v>
       </c>
       <c r="O5" s="2">
-        <v>775.90642818510116</v>
+        <v>512.30330000000004</v>
       </c>
       <c r="P5" s="2">
-        <v>446.34784605666351</v>
+        <v>250.369</v>
       </c>
       <c r="Q5" s="2">
-        <v>26.781920453649594</v>
+        <v>82.507000000000005</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>31.444381414149994</v>
+        <v>26.525600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>2030</v>
@@ -1208,57 +1209,57 @@
         <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>738.32376765399999</v>
+        <v>668.73800000000006</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>24.282699999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>296.18283833264002</v>
+        <v>282.512</v>
       </c>
       <c r="H6" s="2">
-        <v>41.30745144530124</v>
+        <v>22.036899999999999</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>219.44447723121795</v>
+        <v>434.37099999999998</v>
       </c>
       <c r="K6" s="2">
-        <v>2.1016274700519238E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1207.7292004227729</v>
+        <v>1569.99</v>
       </c>
       <c r="M6" s="2">
-        <v>449.13299348752054</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>34.550420035031848</v>
+        <v>208.99799999999999</v>
       </c>
       <c r="O6" s="2">
-        <v>1131.8939186125192</v>
+        <v>733.78869999999995</v>
       </c>
       <c r="P6" s="2">
-        <v>873.98561769199569</v>
+        <v>431.846</v>
       </c>
       <c r="Q6" s="2">
-        <v>47.908285402105996</v>
+        <v>106.19</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>38.704500244636002</v>
+        <v>27.876999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>2035</v>
@@ -1267,54 +1268,54 @@
         <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>760.09544182599996</v>
+        <v>612.07799999999997</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>24.282699999999998</v>
       </c>
       <c r="G7" s="2">
-        <v>288.85490884856199</v>
+        <v>282.45800000000003</v>
       </c>
       <c r="H7" s="2">
-        <v>39.069618581392653</v>
+        <v>22.591100000000001</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>4.3238743654404202E-3</v>
+        <v>407.82900000000001</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1161.1160070206129</v>
+        <v>1578.08</v>
       </c>
       <c r="M7" s="2">
-        <v>456.57663202827996</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>30.011125767434883</v>
+        <v>250.00299999999999</v>
       </c>
       <c r="O7" s="2">
-        <v>1250.6783408330728</v>
+        <v>890.63479999999993</v>
       </c>
       <c r="P7" s="2">
-        <v>1132.2662419820713</v>
+        <v>608.04899999999998</v>
       </c>
       <c r="Q7" s="2">
-        <v>78.193802987086187</v>
+        <v>129.66999999999999</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>32.178566482027996</v>
+        <v>28.607499999999998</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -1326,54 +1327,54 @@
         <v>16</v>
       </c>
       <c r="E8" s="2">
-        <v>753.04919300474262</v>
+        <v>744.80770841399988</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>292.32495992923566</v>
+        <v>296.36114309239997</v>
       </c>
       <c r="H8" s="2">
-        <v>36.941495815077921</v>
+        <v>40.137137666754796</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>899.74552453321735</v>
+        <v>497.22615679470152</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>4.0298405717999995E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>473.95272669510177</v>
+        <v>1362.4675278695458</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>229.41214669135238</v>
       </c>
       <c r="N8" s="2">
-        <v>271.27839555388658</v>
+        <v>42.940190952748907</v>
       </c>
       <c r="O8" s="2">
-        <v>872.99207719403103</v>
+        <v>775.90642818510116</v>
       </c>
       <c r="P8" s="2">
-        <v>448.82530958049676</v>
+        <v>446.34784605666351</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>26.781920453649594</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>24.66827357147509</v>
+        <v>31.444381414149994</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -1385,54 +1386,54 @@
         <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>704.98958836146426</v>
+        <v>738.32376765399999</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>292.25584976195023</v>
+        <v>296.18283833264002</v>
       </c>
       <c r="H9" s="2">
-        <v>41.811645471349657</v>
+        <v>41.30745144530124</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>562.28882136665106</v>
+        <v>219.44447723121795</v>
       </c>
       <c r="K9" s="2">
-        <v>5.2460335183997815</v>
+        <v>2.1016274700519238E-2</v>
       </c>
       <c r="L9" s="2">
-        <v>441.53225837857849</v>
+        <v>1207.7292004227729</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>449.13299348752054</v>
       </c>
       <c r="N9" s="2">
-        <v>271.36032189766593</v>
+        <v>34.550420035031848</v>
       </c>
       <c r="O9" s="2">
-        <v>1153.7205518337512</v>
+        <v>1131.8939186125192</v>
       </c>
       <c r="P9" s="2">
-        <v>742.14115520796736</v>
+        <v>873.98561769199569</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>47.908285402105996</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>32.215430794665096</v>
+        <v>38.704500244636002</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1444,57 +1445,57 @@
         <v>16</v>
       </c>
       <c r="E10" s="2">
-        <v>559.29508927665211</v>
+        <v>760.09544182599996</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>291.72522241405909</v>
+        <v>288.85490884856199</v>
       </c>
       <c r="H10" s="2">
-        <v>45.260584067934886</v>
+        <v>39.069618581392653</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>499.95061942050557</v>
+        <v>4.3238743654404202E-3</v>
       </c>
       <c r="K10" s="2">
-        <v>5.8579859334601512</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>396.8409652270563</v>
+        <v>1161.1160070206129</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>456.57663202827996</v>
       </c>
       <c r="N10" s="2">
-        <v>270.28127807872505</v>
+        <v>30.011125767434883</v>
       </c>
       <c r="O10" s="2">
-        <v>1308.7188988013349</v>
+        <v>1250.6783408330728</v>
       </c>
       <c r="P10" s="2">
-        <v>849.04482423144611</v>
+        <v>1132.2662419820713</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>78.193802987086187</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>39.605315111815948</v>
+        <v>32.178566482027996</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>2025</v>
@@ -1503,57 +1504,57 @@
         <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>730.2017531606889</v>
+        <v>785.20267045999992</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>302.44845404034936</v>
+        <v>300.43870904599999</v>
       </c>
       <c r="H11" s="2">
-        <v>40.533748658272039</v>
+        <v>43.135910041186314</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>512.76594314723923</v>
+        <v>767.48411346956698</v>
       </c>
       <c r="K11" s="2">
-        <v>40.891629076272011</v>
+        <v>0.75765383895999994</v>
       </c>
       <c r="L11" s="2">
-        <v>1677.738367349024</v>
+        <v>1571.9844310846729</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1.4659763347446337</v>
       </c>
       <c r="N11" s="2">
-        <v>79.46669919393392</v>
+        <v>50.778848069073618</v>
       </c>
       <c r="O11" s="2">
-        <v>523.43616112551445</v>
+        <v>451.25878173304017</v>
       </c>
       <c r="P11" s="2">
-        <v>285.64959221776837</v>
+        <v>342.46136765441554</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>22.939601565344397</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>28.565074268765997</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>2030</v>
@@ -1562,57 +1563,57 @@
         <v>16</v>
       </c>
       <c r="E12" s="2">
-        <v>677.9494640645529</v>
+        <v>788.67172599000003</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>319.55456404809911</v>
+        <v>300.31458305299998</v>
       </c>
       <c r="H12" s="2">
-        <v>40.349152724579035</v>
+        <v>45.595447917887469</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>198.30435250756994</v>
+        <v>737.35794822580669</v>
       </c>
       <c r="K12" s="2">
-        <v>135.28232271866401</v>
+        <v>1.3633230176079996</v>
       </c>
       <c r="L12" s="2">
-        <v>1582.8259722245059</v>
+        <v>1544.6627410841575</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>2.0809608855539041</v>
       </c>
       <c r="N12" s="2">
-        <v>67.134729431833165</v>
+        <v>44.052829833980695</v>
       </c>
       <c r="O12" s="2">
-        <v>890.32611025045185</v>
+        <v>576.46441195340219</v>
       </c>
       <c r="P12" s="2">
-        <v>369.66026457638668</v>
+        <v>544.68979204811819</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>54.409213281335191</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>35.438738063191998</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>2035</v>
@@ -1621,54 +1622,54 @@
         <v>16</v>
       </c>
       <c r="E13" s="2">
-        <v>75.806939614127984</v>
+        <v>788.47144660999982</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>316.09579654330616</v>
+        <v>294.16129493819994</v>
       </c>
       <c r="H13" s="2">
-        <v>40.342597297805028</v>
+        <v>44.747556540644048</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>143.31146876299007</v>
+        <v>684.04658795384182</v>
       </c>
       <c r="K13" s="2">
-        <v>135.2823227172</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1582.2810371216201</v>
+        <v>1818.0346065706708</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>71.717317725246573</v>
+        <v>30.642616006969721</v>
       </c>
       <c r="O13" s="2">
-        <v>1368.2407705968026</v>
+        <v>617.94013436486046</v>
       </c>
       <c r="P13" s="2">
-        <v>683.16086229657151</v>
+        <v>654.28249610468947</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>70.499430040928388</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>36.449421593039993</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -1680,40 +1681,40 @@
         <v>16</v>
       </c>
       <c r="E14" s="2">
-        <v>800.28119577999996</v>
+        <v>753.04919300474262</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>286.49189586</v>
+        <v>292.32495992923566</v>
       </c>
       <c r="H14" s="2">
-        <v>9.2388962800000005</v>
+        <v>36.941495815077921</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>702.0672283199998</v>
+        <v>899.74552453321735</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1576.0262608200001</v>
+        <v>473.95272669510177</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>143.30567020000001</v>
+        <v>271.27839555388658</v>
       </c>
       <c r="O14" s="2">
-        <v>602.15881506000005</v>
+        <v>872.99207719403103</v>
       </c>
       <c r="P14" s="2">
-        <v>454.50869694000005</v>
+        <v>448.82530958049676</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -1722,12 +1723,12 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>23.691685620000005</v>
+        <v>24.66827357147509</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -1739,40 +1740,40 @@
         <v>16</v>
       </c>
       <c r="E15" s="2">
-        <v>797.51730467999982</v>
+        <v>704.98958836146426</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>286.49189586</v>
+        <v>292.25584976195023</v>
       </c>
       <c r="H15" s="2">
-        <v>25.694465000000001</v>
+        <v>41.811645471349657</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>514.78374516000019</v>
+        <v>562.28882136665106</v>
       </c>
       <c r="K15" s="2">
-        <v>133.80010704</v>
+        <v>5.2460335183997815</v>
       </c>
       <c r="L15" s="2">
-        <v>1873.1987207800003</v>
+        <v>441.53225837857849</v>
       </c>
       <c r="M15" s="2">
-        <v>96.972299800000016</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>148.09734070000002</v>
+        <v>271.36032189766593</v>
       </c>
       <c r="O15" s="2">
-        <v>602.15881506000005</v>
+        <v>1153.7205518337512</v>
       </c>
       <c r="P15" s="2">
-        <v>476.16149204000004</v>
+        <v>742.14115520796736</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -1781,12 +1782,12 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>56.877823280000001</v>
+        <v>32.215430794665096</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1798,40 +1799,40 @@
         <v>16</v>
       </c>
       <c r="E16" s="2">
-        <v>797.51730467999982</v>
+        <v>559.29508927665211</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>286.49189586</v>
+        <v>291.72522241405909</v>
       </c>
       <c r="H16" s="2">
-        <v>9.0222294400000003</v>
+        <v>45.260584067934886</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>203.29182930000005</v>
+        <v>499.95061942050557</v>
       </c>
       <c r="K16" s="2">
-        <v>1285.9565843200003</v>
+        <v>5.8579859334601512</v>
       </c>
       <c r="L16" s="2">
-        <v>1283.4176934000002</v>
+        <v>396.8409652270563</v>
       </c>
       <c r="M16" s="2">
-        <v>96.972299800000016</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>143.73067054000001</v>
+        <v>270.28127807872505</v>
       </c>
       <c r="O16" s="2">
-        <v>602.15881506000005</v>
+        <v>1308.7188988013349</v>
       </c>
       <c r="P16" s="2">
-        <v>497.8059538</v>
+        <v>849.04482423144611</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -1840,15 +1841,15 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>56.877823280000001</v>
+        <v>39.605315111815948</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>2025</v>
@@ -1857,57 +1858,57 @@
         <v>16</v>
       </c>
       <c r="E17" s="2">
-        <v>781.76892099999998</v>
+        <v>753.04919300474239</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>298.68099999999998</v>
+        <v>292.32495992923566</v>
       </c>
       <c r="H17" s="2">
-        <v>48.591290999999998</v>
+        <v>37.263290719208186</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>619.53832999999997</v>
+        <v>1029.4800282237557</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1360.635407</v>
+        <v>610.52393398263291</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>70.934889999999996</v>
+        <v>280.64157229556594</v>
       </c>
       <c r="O17" s="2">
-        <v>544.97564</v>
+        <v>738.09519644938268</v>
       </c>
       <c r="P17" s="2">
-        <v>310.59684499999997</v>
+        <v>306.28489285806404</v>
       </c>
       <c r="Q17" s="2">
-        <v>90.406441000000001</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>3.9597449999999998</v>
+        <v>25.863162681742054</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>2030</v>
@@ -1916,57 +1917,57 @@
         <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>754.86395300000004</v>
+        <v>704.98958836146517</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>285.11086999999998</v>
+        <v>292.25584976195023</v>
       </c>
       <c r="H18" s="2">
-        <v>60.584315999999994</v>
+        <v>44.583056832670664</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>137.58805799999999</v>
+        <v>873.10624974262976</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>762.81127900000001</v>
+        <v>718.02013598272708</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>58.376089</v>
+        <v>291.90272071779367</v>
       </c>
       <c r="O18" s="2">
-        <v>1232.7311100000002</v>
+        <v>837.62020712589333</v>
       </c>
       <c r="P18" s="2">
-        <v>840.90923800000007</v>
+        <v>449.29537586378251</v>
       </c>
       <c r="Q18" s="2">
-        <v>163.24052399999999</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>3.8828450000000001</v>
+        <v>33.66006762189668</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>2035</v>
@@ -1975,54 +1976,54 @@
         <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>186.50744599999999</v>
+        <v>559.29508927665211</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>259.54174799999998</v>
+        <v>291.72522241405909</v>
       </c>
       <c r="H19" s="2">
-        <v>70.479870000000005</v>
+        <v>47.203894048618054</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>204.843323</v>
+        <v>793.54744359718848</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>891.18502799999987</v>
+        <v>679.45929201534102</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>55.963816000000008</v>
+        <v>284.56941974458402</v>
       </c>
       <c r="O19" s="2">
-        <v>1483.314087</v>
+        <v>933.99971150251338</v>
       </c>
       <c r="P19" s="2">
-        <v>1212.7356159999999</v>
+        <v>627.76856568989695</v>
       </c>
       <c r="Q19" s="2">
-        <v>196.47010800000001</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>4.9458029999999997</v>
+        <v>41.686308133032462</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -2034,54 +2035,54 @@
         <v>16</v>
       </c>
       <c r="E20" s="2">
-        <v>780.28084511171005</v>
+        <v>730.2017531606889</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>299.20971688573002</v>
+        <v>302.44845404034936</v>
       </c>
       <c r="H20" s="2">
-        <v>17.493335248982</v>
+        <v>40.533748658272039</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>612.001565487025</v>
+        <v>512.76594314723923</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>40.891629076272011</v>
       </c>
       <c r="L20" s="2">
-        <v>1208.3986972333901</v>
+        <v>1677.738367349024</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>62.619874959315098</v>
+        <v>79.46669919393392</v>
       </c>
       <c r="O20" s="2">
-        <v>739.85577853972802</v>
+        <v>523.43616112551445</v>
       </c>
       <c r="P20" s="2">
-        <v>337.83089356829299</v>
+        <v>285.64959221776837</v>
       </c>
       <c r="Q20" s="2">
-        <v>70.671609043535298</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>67.779307134056793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
@@ -2093,54 +2094,54 @@
         <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>738.39725001100101</v>
+        <v>677.9494640645529</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>302.80770179154001</v>
+        <v>319.55456404809911</v>
       </c>
       <c r="H21" s="2">
-        <v>16.148640057560101</v>
+        <v>40.349152724579035</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>72.057770319517104</v>
+        <v>198.30435250756994</v>
       </c>
       <c r="K21" s="2">
-        <v>269.38930690071402</v>
+        <v>135.28232271866401</v>
       </c>
       <c r="L21" s="2">
-        <v>672.02672594786895</v>
+        <v>1582.8259722245059</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>59.7648729811621</v>
+        <v>67.134729431833165</v>
       </c>
       <c r="O21" s="2">
-        <v>1273.89909069533</v>
+        <v>890.32611025045185</v>
       </c>
       <c r="P21" s="2">
-        <v>866.61336415875599</v>
+        <v>369.66026457638668</v>
       </c>
       <c r="Q21" s="2">
-        <v>129.641000324902</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>66.899651319493003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -2152,57 +2153,57 @@
         <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>722.82972936727504</v>
+        <v>75.806939614127984</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>302.03874669822801</v>
+        <v>316.09579654330616</v>
       </c>
       <c r="H22" s="2">
-        <v>15.4745753772727</v>
+        <v>40.342597297805028</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>62.442907385498202</v>
+        <v>143.31146876299007</v>
       </c>
       <c r="K22" s="2">
-        <v>290.12724731632102</v>
+        <v>135.2823227172</v>
       </c>
       <c r="L22" s="2">
-        <v>455.90465845953798</v>
+        <v>1582.2810371216201</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>61.207948168493303</v>
+        <v>71.717317725246573</v>
       </c>
       <c r="O22" s="2">
-        <v>1574.77559275216</v>
+        <v>1368.2407705968026</v>
       </c>
       <c r="P22" s="2">
-        <v>1083.30017417154</v>
+        <v>683.16086229657151</v>
       </c>
       <c r="Q22" s="2">
-        <v>192.158223122062</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>43.686656892965701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <v>2025</v>
@@ -2211,46 +2212,46 @@
         <v>16</v>
       </c>
       <c r="E23" s="2">
-        <v>753.17563155618689</v>
+        <v>722.04174759050261</v>
       </c>
       <c r="F23" s="2">
-        <v>29.611891711644681</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>277.46045394919383</v>
+        <v>308.04937535191215</v>
       </c>
       <c r="H23" s="2">
-        <v>60.185358930868347</v>
+        <v>41.021870196971044</v>
       </c>
       <c r="I23" s="2">
-        <v>6.7976928946839488E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>896.43904243126622</v>
+        <v>486.02101435707402</v>
       </c>
       <c r="K23" s="2">
-        <v>127.10584683986583</v>
+        <v>16.967618495208001</v>
       </c>
       <c r="L23" s="2">
-        <v>977.25377473825915</v>
+        <v>1604.4022254061585</v>
       </c>
       <c r="M23" s="2">
-        <v>8.1243712009845126</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>61.863953473149536</v>
+        <v>67.615339522149327</v>
       </c>
       <c r="O23" s="2">
-        <v>546.67348430405457</v>
+        <v>652.79248097654659</v>
       </c>
       <c r="P23" s="2">
-        <v>288.54058697938672</v>
+        <v>303.41141895534838</v>
       </c>
       <c r="Q23" s="2">
-        <v>132.63676430670591</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>5.5721445031698106E-7</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -2258,10 +2259,10 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>2030</v>
@@ -2270,46 +2271,46 @@
         <v>16</v>
       </c>
       <c r="E24" s="2">
-        <v>752.29839269113972</v>
+        <v>509.54177865062422</v>
       </c>
       <c r="F24" s="2">
-        <v>29.646548074984498</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>277.4283611946189</v>
+        <v>313.1641188053477</v>
       </c>
       <c r="H24" s="2">
-        <v>56.563323830485466</v>
+        <v>41.780503020337029</v>
       </c>
       <c r="I24" s="2">
-        <v>5.068942259158181</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>464.65810118434644</v>
+        <v>361.75902028209003</v>
       </c>
       <c r="K24" s="2">
-        <v>176.4432861855949</v>
+        <v>16.967618495208001</v>
       </c>
       <c r="L24" s="2">
-        <v>1242.9234083217041</v>
+        <v>1881.8527558148658</v>
       </c>
       <c r="M24" s="2">
-        <v>0.55844040232428238</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>79.704062644214375</v>
+        <v>59.742418197060402</v>
       </c>
       <c r="O24" s="2">
-        <v>627.44198336755585</v>
+        <v>765.79960945337939</v>
       </c>
       <c r="P24" s="2">
-        <v>345.83569838629279</v>
+        <v>333.0558868586694</v>
       </c>
       <c r="Q24" s="2">
-        <v>202.69526428596157</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
-        <v>0.19437849324600931</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -2317,10 +2318,10 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>2035</v>
@@ -2329,46 +2330,46 @@
         <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>732.51250661501888</v>
+        <v>67.845943403904002</v>
       </c>
       <c r="F25" s="2">
-        <v>28.85956881661853</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>305.91932385781001</v>
+        <v>310.64807083535914</v>
       </c>
       <c r="H25" s="2">
-        <v>56.52504474330037</v>
+        <v>42.455761395414029</v>
       </c>
       <c r="I25" s="2">
-        <v>5.0644337605240084</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>150.99254530181562</v>
+        <v>333.60048209684095</v>
       </c>
       <c r="K25" s="2">
-        <v>176.27757933654118</v>
+        <v>16.967618495208001</v>
       </c>
       <c r="L25" s="2">
-        <v>831.28287918717933</v>
+        <v>2005.5272439608041</v>
       </c>
       <c r="M25" s="2">
-        <v>0.56098247543647528</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>40.618502450867197</v>
+        <v>52.048955685891613</v>
       </c>
       <c r="O25" s="2">
-        <v>1368.0104339627267</v>
+        <v>991.68428015714642</v>
       </c>
       <c r="P25" s="2">
-        <v>642.32010137163343</v>
+        <v>574.09761333847825</v>
       </c>
       <c r="Q25" s="2">
-        <v>253.89221631396563</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
-        <v>1.0458718565621824E-2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -2376,7 +2377,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -2388,54 +2389,54 @@
         <v>16</v>
       </c>
       <c r="E26" s="2">
-        <v>800</v>
+        <v>800.28119577999996</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>303</v>
+        <v>286.49189586</v>
       </c>
       <c r="H26" s="2">
-        <v>45</v>
+        <v>9.2388962800000005</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>1095.5</v>
+        <v>702.0672283199998</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1001.5</v>
+        <v>1576.0262608200001</v>
       </c>
       <c r="M26" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>88</v>
+        <v>143.30567020000001</v>
       </c>
       <c r="O26" s="2">
-        <v>723</v>
+        <v>602.15881506000005</v>
       </c>
       <c r="P26" s="2">
-        <v>263</v>
+        <v>454.50869694000005</v>
       </c>
       <c r="Q26" s="2">
-        <v>129.5</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <v>1</v>
+        <v>23.691685620000005</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -2447,54 +2448,54 @@
         <v>16</v>
       </c>
       <c r="E27" s="2">
-        <v>790</v>
+        <v>797.51730467999982</v>
       </c>
       <c r="F27" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>296</v>
+        <v>286.49189586</v>
       </c>
       <c r="H27" s="2">
-        <v>40</v>
+        <v>25.694465000000001</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>480</v>
+        <v>514.78374516000019</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>133.80010704</v>
       </c>
       <c r="L27" s="2">
-        <v>801</v>
+        <v>1873.1987207800003</v>
       </c>
       <c r="M27" s="2">
-        <v>5</v>
+        <v>96.972299800000016</v>
       </c>
       <c r="N27" s="2">
-        <v>6</v>
+        <v>148.09734070000002</v>
       </c>
       <c r="O27" s="2">
-        <v>1737</v>
+        <v>602.15881506000005</v>
       </c>
       <c r="P27" s="2">
-        <v>758</v>
+        <v>476.16149204000004</v>
       </c>
       <c r="Q27" s="2">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>56.877823280000001</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -2506,54 +2507,54 @@
         <v>16</v>
       </c>
       <c r="E28" s="2">
-        <v>784</v>
+        <v>797.51730467999982</v>
       </c>
       <c r="F28" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>273</v>
+        <v>286.49189586</v>
       </c>
       <c r="H28" s="2">
-        <v>31</v>
+        <v>9.0222294400000003</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>235</v>
+        <v>203.29182930000005</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>1285.9565843200003</v>
       </c>
       <c r="L28" s="2">
-        <v>438</v>
+        <v>1283.4176934000002</v>
       </c>
       <c r="M28" s="2">
-        <v>2</v>
+        <v>96.972299800000016</v>
       </c>
       <c r="N28" s="2">
-        <v>5</v>
+        <v>143.73067054000001</v>
       </c>
       <c r="O28" s="2">
-        <v>2375</v>
+        <v>602.15881506000005</v>
       </c>
       <c r="P28" s="2">
-        <v>1939</v>
+        <v>497.8059538</v>
       </c>
       <c r="Q28" s="2">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>0</v>
+        <v>56.877823280000001</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -2565,54 +2566,54 @@
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>757.77499999999998</v>
+        <v>800.28119577999996</v>
       </c>
       <c r="F29" s="2">
-        <v>24.282699999999998</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>284.76400000000001</v>
+        <v>286.49189586</v>
       </c>
       <c r="H29" s="2">
-        <v>37.614600000000003</v>
+        <v>8.9583405000000003</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>608.779</v>
+        <v>723.12835628000005</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>1533.28</v>
+        <v>1570.6512565200003</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>150.77099999999999</v>
+        <v>143.5278926</v>
       </c>
       <c r="O29" s="2">
-        <v>512.30330000000004</v>
+        <v>614.20326913999997</v>
       </c>
       <c r="P29" s="2">
-        <v>250.369</v>
+        <v>494.87817368000003</v>
       </c>
       <c r="Q29" s="2">
-        <v>82.507000000000005</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <v>26.525600000000001</v>
+        <v>23.691685620000005</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
@@ -2624,54 +2625,54 @@
         <v>16</v>
       </c>
       <c r="E30" s="2">
-        <v>668.73800000000006</v>
+        <v>797.51730468000005</v>
       </c>
       <c r="F30" s="2">
-        <v>24.282699999999998</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>282.512</v>
+        <v>286.49189586</v>
       </c>
       <c r="H30" s="2">
-        <v>22.036899999999999</v>
+        <v>10.647230740000001</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>434.37099999999998</v>
+        <v>669.65053572000011</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>1569.99</v>
+        <v>1748.0930651400001</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>208.99799999999999</v>
+        <v>143.55011484000002</v>
       </c>
       <c r="O30" s="2">
-        <v>733.78869999999995</v>
+        <v>650.09774230000005</v>
       </c>
       <c r="P30" s="2">
-        <v>431.846</v>
+        <v>516.53096878000008</v>
       </c>
       <c r="Q30" s="2">
-        <v>106.19</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <v>27.876999999999999</v>
+        <v>56.877823280000001</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -2683,57 +2684,57 @@
         <v>16</v>
       </c>
       <c r="E31" s="2">
-        <v>612.07799999999997</v>
+        <v>797.51730468000005</v>
       </c>
       <c r="F31" s="2">
-        <v>24.282699999999998</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>282.45800000000003</v>
+        <v>286.49189586</v>
       </c>
       <c r="H31" s="2">
-        <v>22.591100000000001</v>
+        <v>10.813897540000001</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>407.82900000000001</v>
+        <v>684.36443638000003</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>1578.08</v>
+        <v>1874.3126105600004</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>250.00299999999999</v>
+        <v>144.18622646</v>
       </c>
       <c r="O31" s="2">
-        <v>890.63479999999993</v>
+        <v>666.85608904000003</v>
       </c>
       <c r="P31" s="2">
-        <v>608.04899999999998</v>
+        <v>538.17543053999998</v>
       </c>
       <c r="Q31" s="2">
-        <v>129.66999999999999</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <v>28.607499999999998</v>
+        <v>56.877823280000001</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>2025</v>
@@ -2742,57 +2743,57 @@
         <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>785.20267045999992</v>
+        <v>781.76892099999998</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>300.43870904599999</v>
+        <v>298.68099999999998</v>
       </c>
       <c r="H32" s="2">
-        <v>43.135910041186314</v>
+        <v>48.591290999999998</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>767.48411346956698</v>
+        <v>619.53832999999997</v>
       </c>
       <c r="K32" s="2">
-        <v>0.75765383895999994</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>1571.9844310846729</v>
+        <v>1360.635407</v>
       </c>
       <c r="M32" s="2">
-        <v>1.4659763347446337</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>50.778848069073618</v>
+        <v>70.934889999999996</v>
       </c>
       <c r="O32" s="2">
-        <v>451.25878173304017</v>
+        <v>544.97564</v>
       </c>
       <c r="P32" s="2">
-        <v>342.46136765441554</v>
+        <v>310.59684499999997</v>
       </c>
       <c r="Q32" s="2">
-        <v>22.939601565344397</v>
+        <v>90.406441000000001</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>28.565074268765997</v>
+        <v>3.9597449999999998</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>2030</v>
@@ -2801,57 +2802,57 @@
         <v>16</v>
       </c>
       <c r="E33" s="2">
-        <v>788.67172599000003</v>
+        <v>754.86395300000004</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>300.31458305299998</v>
+        <v>285.11086999999998</v>
       </c>
       <c r="H33" s="2">
-        <v>45.595447917887469</v>
+        <v>60.584315999999994</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>737.35794822580669</v>
+        <v>137.58805799999999</v>
       </c>
       <c r="K33" s="2">
-        <v>1.3633230176079996</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>1544.6627410841575</v>
+        <v>762.81127900000001</v>
       </c>
       <c r="M33" s="2">
-        <v>2.0809608855539041</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>44.052829833980695</v>
+        <v>58.376089</v>
       </c>
       <c r="O33" s="2">
-        <v>576.46441195340219</v>
+        <v>1232.7311100000002</v>
       </c>
       <c r="P33" s="2">
-        <v>544.68979204811819</v>
+        <v>840.90923800000007</v>
       </c>
       <c r="Q33" s="2">
-        <v>54.409213281335191</v>
+        <v>163.24052399999999</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>35.438738063191998</v>
+        <v>3.8828450000000001</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>2035</v>
@@ -2860,54 +2861,54 @@
         <v>16</v>
       </c>
       <c r="E34" s="2">
-        <v>788.47144660999982</v>
+        <v>186.50744599999999</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>294.16129493819994</v>
+        <v>259.54174799999998</v>
       </c>
       <c r="H34" s="2">
-        <v>44.747556540644048</v>
+        <v>70.479870000000005</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>684.04658795384182</v>
+        <v>204.843323</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>1818.0346065706708</v>
+        <v>891.18502799999987</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>30.642616006969721</v>
+        <v>55.963816000000008</v>
       </c>
       <c r="O34" s="2">
-        <v>617.94013436486046</v>
+        <v>1483.314087</v>
       </c>
       <c r="P34" s="2">
-        <v>654.28249610468947</v>
+        <v>1212.7356159999999</v>
       </c>
       <c r="Q34" s="2">
-        <v>70.499430040928388</v>
+        <v>196.47010800000001</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <v>36.449421593039993</v>
+        <v>4.9458029999999997</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -2919,54 +2920,54 @@
         <v>16</v>
       </c>
       <c r="E35" s="2">
-        <v>753.04919300474239</v>
+        <v>781.77593999999999</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>292.32495992923566</v>
+        <v>298.72198500000002</v>
       </c>
       <c r="H35" s="2">
-        <v>37.263290719208186</v>
+        <v>48.259076</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>1029.4800282237557</v>
+        <v>592.70623799999998</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>610.52393398263291</v>
+        <v>1164.4039620000001</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>280.64157229556594</v>
+        <v>64.357446999999993</v>
       </c>
       <c r="O35" s="2">
-        <v>738.09519644938268</v>
+        <v>667.93541500000003</v>
       </c>
       <c r="P35" s="2">
-        <v>306.28489285806404</v>
+        <v>444.21766300000002</v>
       </c>
       <c r="Q35" s="2">
-        <v>0</v>
+        <v>86.884276999999997</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <v>25.863162681742054</v>
+        <v>3.9602170000000001</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -2978,54 +2979,54 @@
         <v>16</v>
       </c>
       <c r="E36" s="2">
-        <v>704.98958836146517</v>
+        <v>679.12219200000004</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>292.25584976195023</v>
+        <v>296.67837500000002</v>
       </c>
       <c r="H36" s="2">
-        <v>44.583056832670664</v>
+        <v>56.882835</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>873.10624974262976</v>
+        <v>485.20886200000001</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>718.02013598272708</v>
+        <v>1208.7621760000002</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>291.90272071779367</v>
+        <v>51.100462</v>
       </c>
       <c r="O36" s="2">
-        <v>837.62020712589333</v>
+        <v>779.59555</v>
       </c>
       <c r="P36" s="2">
-        <v>449.29537586378251</v>
+        <v>549.95623699999999</v>
       </c>
       <c r="Q36" s="2">
-        <v>0</v>
+        <v>154.24382</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>33.66006762189668</v>
+        <v>3.936925</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -3037,57 +3038,57 @@
         <v>16</v>
       </c>
       <c r="E37" s="2">
-        <v>559.29508927665211</v>
+        <v>624.71051</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>291.72522241405909</v>
+        <v>293.20446800000002</v>
       </c>
       <c r="H37" s="2">
-        <v>47.203894048618054</v>
+        <v>65.627898999999999</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>793.54744359718848</v>
+        <v>446.35171500000001</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>679.45929201534102</v>
+        <v>1137.8700249999999</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>284.56941974458402</v>
+        <v>47.021577000000001</v>
       </c>
       <c r="O37" s="2">
-        <v>933.99971150251338</v>
+        <v>818.24822300000005</v>
       </c>
       <c r="P37" s="2">
-        <v>627.76856568989695</v>
+        <v>813.65657299999998</v>
       </c>
       <c r="Q37" s="2">
-        <v>0</v>
+        <v>198.035934</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <v>41.686308133032462</v>
+        <v>3.9109629999999997</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>2025</v>
@@ -3096,57 +3097,57 @@
         <v>16</v>
       </c>
       <c r="E38" s="2">
-        <v>722.04174759050261</v>
+        <v>780.28084511171005</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>308.04937535191215</v>
+        <v>299.20971688573002</v>
       </c>
       <c r="H38" s="2">
-        <v>41.021870196971044</v>
+        <v>17.493335248982</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>486.02101435707402</v>
+        <v>612.001565487025</v>
       </c>
       <c r="K38" s="2">
-        <v>16.967618495208001</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>1604.4022254061585</v>
+        <v>1208.3986972333901</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>67.615339522149327</v>
+        <v>62.619874959315098</v>
       </c>
       <c r="O38" s="2">
-        <v>652.79248097654659</v>
+        <v>739.85577853972802</v>
       </c>
       <c r="P38" s="2">
-        <v>303.41141895534838</v>
+        <v>337.83089356829299</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
+        <v>70.671609043535298</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
       </c>
       <c r="S38" s="2">
-        <v>0</v>
+        <v>67.779307134056793</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>2030</v>
@@ -3155,57 +3156,57 @@
         <v>16</v>
       </c>
       <c r="E39" s="2">
-        <v>509.54177865062422</v>
+        <v>738.39725001100101</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>313.1641188053477</v>
+        <v>302.80770179154001</v>
       </c>
       <c r="H39" s="2">
-        <v>41.780503020337029</v>
+        <v>16.148640057560101</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>361.75902028209003</v>
+        <v>72.057770319517104</v>
       </c>
       <c r="K39" s="2">
-        <v>16.967618495208001</v>
+        <v>269.38930690071402</v>
       </c>
       <c r="L39" s="2">
-        <v>1881.8527558148658</v>
+        <v>672.02672594786895</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>59.742418197060402</v>
+        <v>59.7648729811621</v>
       </c>
       <c r="O39" s="2">
-        <v>765.79960945337939</v>
+        <v>1273.89909069533</v>
       </c>
       <c r="P39" s="2">
-        <v>333.0558868586694</v>
+        <v>866.61336415875599</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>129.641000324902</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>0</v>
+        <v>66.899651319493003</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>2035</v>
@@ -3214,54 +3215,54 @@
         <v>16</v>
       </c>
       <c r="E40" s="2">
-        <v>67.845943403904002</v>
+        <v>722.82972936727504</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>310.64807083535914</v>
+        <v>302.03874669822801</v>
       </c>
       <c r="H40" s="2">
-        <v>42.455761395414029</v>
+        <v>15.4745753772727</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>333.60048209684095</v>
+        <v>62.442907385498202</v>
       </c>
       <c r="K40" s="2">
-        <v>16.967618495208001</v>
+        <v>290.12724731632102</v>
       </c>
       <c r="L40" s="2">
-        <v>2005.5272439608041</v>
+        <v>455.90465845953798</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>52.048955685891613</v>
+        <v>61.207948168493303</v>
       </c>
       <c r="O40" s="2">
-        <v>991.68428015714642</v>
+        <v>1574.77559275216</v>
       </c>
       <c r="P40" s="2">
-        <v>574.09761333847825</v>
+        <v>1083.30017417154</v>
       </c>
       <c r="Q40" s="2">
-        <v>0</v>
+        <v>192.158223122062</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>43.686656892965701</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>19</v>
@@ -3273,54 +3274,54 @@
         <v>16</v>
       </c>
       <c r="E41" s="2">
-        <v>800.28119577999996</v>
+        <v>780.388206174316</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>286.49189586</v>
+        <v>299.87461785131501</v>
       </c>
       <c r="H41" s="2">
-        <v>8.9583405000000003</v>
+        <v>18.675109592004599</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>723.12835628000005</v>
+        <v>762.91261764502894</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <v>1570.6512565200003</v>
+        <v>1320.3572713296601</v>
       </c>
       <c r="M41" s="2">
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>143.5278926</v>
+        <v>64.649007177700497</v>
       </c>
       <c r="O41" s="2">
-        <v>614.20326913999997</v>
+        <v>600.40285528588902</v>
       </c>
       <c r="P41" s="2">
-        <v>494.87817368000003</v>
+        <v>269.994310217129</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
+        <v>50.576085296977602</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>23.691685620000005</v>
+        <v>67.870024072608601</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>19</v>
@@ -3332,54 +3333,54 @@
         <v>16</v>
       </c>
       <c r="E42" s="2">
-        <v>797.51730468000005</v>
+        <v>762.49630831831598</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>286.49189586</v>
+        <v>302.32521400238301</v>
       </c>
       <c r="H42" s="2">
-        <v>10.647230740000001</v>
+        <v>17.539007097368</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>669.65053572000011</v>
+        <v>696.42600368404499</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <v>1748.0930651400001</v>
+        <v>1241.8854264155</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>143.55011484000002</v>
+        <v>61.297590182562402</v>
       </c>
       <c r="O42" s="2">
-        <v>650.09774230000005</v>
+        <v>686.13375373350698</v>
       </c>
       <c r="P42" s="2">
-        <v>516.53096878000008</v>
+        <v>417.38983185406698</v>
       </c>
       <c r="Q42" s="2">
-        <v>0</v>
+        <v>87.0063065273809</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>56.877823280000001</v>
+        <v>85.7579116462435</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>19</v>
@@ -3391,57 +3392,57 @@
         <v>16</v>
       </c>
       <c r="E43" s="2">
-        <v>797.51730468000005</v>
+        <v>762.49630831831598</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>286.49189586</v>
+        <v>303.65308302530701</v>
       </c>
       <c r="H43" s="2">
-        <v>10.813897540000001</v>
+        <v>16.403209887408</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>684.36443638000003</v>
+        <v>637.86975527047002</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <v>1874.3126105600004</v>
+        <v>1235.34068425601</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <v>144.18622646</v>
+        <v>60.28189057294</v>
       </c>
       <c r="O43" s="2">
-        <v>666.85608904000003</v>
+        <v>831.31152743028701</v>
       </c>
       <c r="P43" s="2">
-        <v>538.17543053999998</v>
+        <v>453.30591529031898</v>
       </c>
       <c r="Q43" s="2">
-        <v>0</v>
+        <v>135.94092304719999</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>56.877823280000001</v>
+        <v>81.5168570997795</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>2025</v>
@@ -3450,57 +3451,57 @@
         <v>16</v>
       </c>
       <c r="E44" s="2">
-        <v>781.77593999999999</v>
+        <v>753.17563155618689</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>29.611891711644681</v>
       </c>
       <c r="G44" s="2">
-        <v>298.72198500000002</v>
+        <v>277.46045394919383</v>
       </c>
       <c r="H44" s="2">
-        <v>48.259076</v>
+        <v>60.185358930868347</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>6.7976928946839488E-2</v>
       </c>
       <c r="J44" s="2">
-        <v>592.70623799999998</v>
+        <v>896.43904243126622</v>
       </c>
       <c r="K44" s="2">
-        <v>0</v>
+        <v>127.10584683986583</v>
       </c>
       <c r="L44" s="2">
-        <v>1164.4039620000001</v>
+        <v>977.25377473825915</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>8.1243712009845126</v>
       </c>
       <c r="N44" s="2">
-        <v>64.357446999999993</v>
+        <v>61.863953473149536</v>
       </c>
       <c r="O44" s="2">
-        <v>667.93541500000003</v>
+        <v>546.67348430405457</v>
       </c>
       <c r="P44" s="2">
-        <v>444.21766300000002</v>
+        <v>288.54058697938672</v>
       </c>
       <c r="Q44" s="2">
-        <v>86.884276999999997</v>
+        <v>132.63676430670591</v>
       </c>
       <c r="R44" s="2">
-        <v>0</v>
+        <v>5.5721445031698106E-7</v>
       </c>
       <c r="S44" s="2">
-        <v>3.9602170000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>2030</v>
@@ -3509,57 +3510,57 @@
         <v>16</v>
       </c>
       <c r="E45" s="2">
-        <v>679.12219200000004</v>
+        <v>752.29839269113972</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>29.646548074984498</v>
       </c>
       <c r="G45" s="2">
-        <v>296.67837500000002</v>
+        <v>277.4283611946189</v>
       </c>
       <c r="H45" s="2">
-        <v>56.882835</v>
+        <v>56.563323830485466</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>5.068942259158181</v>
       </c>
       <c r="J45" s="2">
-        <v>485.20886200000001</v>
+        <v>464.65810118434644</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>176.4432861855949</v>
       </c>
       <c r="L45" s="2">
-        <v>1208.7621760000002</v>
+        <v>1242.9234083217041</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>0.55844040232428238</v>
       </c>
       <c r="N45" s="2">
-        <v>51.100462</v>
+        <v>79.704062644214375</v>
       </c>
       <c r="O45" s="2">
-        <v>779.59555</v>
+        <v>627.44198336755585</v>
       </c>
       <c r="P45" s="2">
-        <v>549.95623699999999</v>
+        <v>345.83569838629279</v>
       </c>
       <c r="Q45" s="2">
-        <v>154.24382</v>
+        <v>202.69526428596157</v>
       </c>
       <c r="R45" s="2">
-        <v>0</v>
+        <v>0.19437849324600931</v>
       </c>
       <c r="S45" s="2">
-        <v>3.936925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>2035</v>
@@ -3568,54 +3569,54 @@
         <v>16</v>
       </c>
       <c r="E46" s="2">
-        <v>624.71051</v>
+        <v>732.51250661501888</v>
       </c>
       <c r="F46" s="2">
-        <v>0</v>
+        <v>28.85956881661853</v>
       </c>
       <c r="G46" s="2">
-        <v>293.20446800000002</v>
+        <v>305.91932385781001</v>
       </c>
       <c r="H46" s="2">
-        <v>65.627898999999999</v>
+        <v>56.52504474330037</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>5.0644337605240084</v>
       </c>
       <c r="J46" s="2">
-        <v>446.35171500000001</v>
+        <v>150.99254530181562</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>176.27757933654118</v>
       </c>
       <c r="L46" s="2">
-        <v>1137.8700249999999</v>
+        <v>831.28287918717933</v>
       </c>
       <c r="M46" s="2">
-        <v>0</v>
+        <v>0.56098247543647528</v>
       </c>
       <c r="N46" s="2">
-        <v>47.021577000000001</v>
+        <v>40.618502450867197</v>
       </c>
       <c r="O46" s="2">
-        <v>818.24822300000005</v>
+        <v>1368.0104339627267</v>
       </c>
       <c r="P46" s="2">
-        <v>813.65657299999998</v>
+        <v>642.32010137163343</v>
       </c>
       <c r="Q46" s="2">
-        <v>198.035934</v>
+        <v>253.89221631396563</v>
       </c>
       <c r="R46" s="2">
-        <v>0</v>
+        <v>1.0458718565621824E-2</v>
       </c>
       <c r="S46" s="2">
-        <v>3.9109629999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>19</v>
@@ -3627,54 +3628,54 @@
         <v>16</v>
       </c>
       <c r="E47" s="2">
-        <v>780.388206174316</v>
+        <v>748.10605006655999</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
+        <v>29.418168619129872</v>
       </c>
       <c r="G47" s="2">
-        <v>299.87461785131501</v>
+        <v>282.12141104875781</v>
       </c>
       <c r="H47" s="2">
-        <v>18.675109592004599</v>
+        <v>60.489052110644927</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>762.91261764502894</v>
+        <v>939.56024923007226</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>1320.3572713296601</v>
+        <v>978.52641846119309</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
       </c>
       <c r="N47" s="2">
-        <v>64.649007177700497</v>
+        <v>72.605033206887597</v>
       </c>
       <c r="O47" s="2">
-        <v>600.40285528588902</v>
+        <v>537.99460192713104</v>
       </c>
       <c r="P47" s="2">
-        <v>269.994310217129</v>
+        <v>300.17604346941414</v>
       </c>
       <c r="Q47" s="2">
-        <v>50.576085296977602</v>
+        <v>117.62324657823888</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
       </c>
       <c r="S47" s="2">
-        <v>67.870024072608601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
@@ -3686,54 +3687,54 @@
         <v>16</v>
       </c>
       <c r="E48" s="2">
-        <v>762.49630831831598</v>
+        <v>749.59585311885974</v>
       </c>
       <c r="F48" s="2">
-        <v>0</v>
+        <v>29.607262934940106</v>
       </c>
       <c r="G48" s="2">
-        <v>302.32521400238301</v>
+        <v>258.55096966893689</v>
       </c>
       <c r="H48" s="2">
-        <v>17.539007097368</v>
+        <v>58.657422811399279</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>2.8096319105617976E-7</v>
       </c>
       <c r="J48" s="2">
-        <v>696.42600368404499</v>
+        <v>668.25467992476388</v>
       </c>
       <c r="K48" s="2">
-        <v>0</v>
+        <v>5.9550615318193583E-7</v>
       </c>
       <c r="L48" s="2">
-        <v>1241.8854264155</v>
+        <v>1136.6706528647974</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>2.6280814524380833E-6</v>
       </c>
       <c r="N48" s="2">
-        <v>61.297590182562402</v>
+        <v>55.044681682467093</v>
       </c>
       <c r="O48" s="2">
-        <v>686.13375373350698</v>
+        <v>630.9182465963612</v>
       </c>
       <c r="P48" s="2">
-        <v>417.38983185406698</v>
+        <v>363.4490631430653</v>
       </c>
       <c r="Q48" s="2">
-        <v>87.0063065273809</v>
+        <v>163.5654557153488</v>
       </c>
       <c r="R48" s="2">
-        <v>0</v>
+        <v>3.2283119322752599E-7</v>
       </c>
       <c r="S48" s="2">
-        <v>85.7579116462435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
@@ -3745,57 +3746,57 @@
         <v>16</v>
       </c>
       <c r="E49" s="2">
-        <v>762.49630831831598</v>
+        <v>752.92578473324409</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
+        <v>29.776930543905028</v>
       </c>
       <c r="G49" s="2">
-        <v>303.65308302530701</v>
+        <v>276.19032811920096</v>
       </c>
       <c r="H49" s="2">
-        <v>16.403209887408</v>
+        <v>57.441499865361003</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>3.50289736444426</v>
       </c>
       <c r="J49" s="2">
-        <v>637.86975527047002</v>
+        <v>594.48903716059795</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>1.2639577611840718E-6</v>
       </c>
       <c r="L49" s="2">
-        <v>1235.34068425601</v>
+        <v>1321.0377032412939</v>
       </c>
       <c r="M49" s="2">
-        <v>0</v>
+        <v>3.0262379256862112E-6</v>
       </c>
       <c r="N49" s="2">
-        <v>60.28189057294</v>
+        <v>44.724428464628161</v>
       </c>
       <c r="O49" s="2">
-        <v>831.31152743028701</v>
+        <v>644.00069349159151</v>
       </c>
       <c r="P49" s="2">
-        <v>453.30591529031898</v>
+        <v>370.000059159172</v>
       </c>
       <c r="Q49" s="2">
-        <v>135.94092304719999</v>
+        <v>208.45700177724555</v>
       </c>
       <c r="R49" s="2">
-        <v>0</v>
+        <v>1.9187420608304607E-7</v>
       </c>
       <c r="S49" s="2">
-        <v>81.5168570997795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>2025</v>
@@ -3804,57 +3805,57 @@
         <v>16</v>
       </c>
       <c r="E50" s="2">
-        <v>748.10605006655999</v>
+        <v>800</v>
       </c>
       <c r="F50" s="2">
-        <v>29.418168619129872</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>282.12141104875781</v>
+        <v>303</v>
       </c>
       <c r="H50" s="2">
-        <v>60.489052110644927</v>
+        <v>45</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
       <c r="J50" s="2">
-        <v>939.56024923007226</v>
+        <v>1095.5</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>978.52641846119309</v>
+        <v>1001.5</v>
       </c>
       <c r="M50" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N50" s="2">
-        <v>72.605033206887597</v>
+        <v>88</v>
       </c>
       <c r="O50" s="2">
-        <v>537.99460192713104</v>
+        <v>723</v>
       </c>
       <c r="P50" s="2">
-        <v>300.17604346941414</v>
+        <v>263</v>
       </c>
       <c r="Q50" s="2">
-        <v>117.62324657823888</v>
+        <v>129.5</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
       </c>
       <c r="S50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>2030</v>
@@ -3863,46 +3864,46 @@
         <v>16</v>
       </c>
       <c r="E51" s="2">
-        <v>749.59585311885974</v>
+        <v>790</v>
       </c>
       <c r="F51" s="2">
-        <v>29.607262934940106</v>
+        <v>4</v>
       </c>
       <c r="G51" s="2">
-        <v>258.55096966893689</v>
+        <v>296</v>
       </c>
       <c r="H51" s="2">
-        <v>58.657422811399279</v>
+        <v>40</v>
       </c>
       <c r="I51" s="2">
-        <v>2.8096319105617976E-7</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>668.25467992476388</v>
+        <v>480</v>
       </c>
       <c r="K51" s="2">
-        <v>5.9550615318193583E-7</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2">
-        <v>1136.6706528647974</v>
+        <v>801</v>
       </c>
       <c r="M51" s="2">
-        <v>2.6280814524380833E-6</v>
+        <v>5</v>
       </c>
       <c r="N51" s="2">
-        <v>55.044681682467093</v>
+        <v>6</v>
       </c>
       <c r="O51" s="2">
-        <v>630.9182465963612</v>
+        <v>1737</v>
       </c>
       <c r="P51" s="2">
-        <v>363.4490631430653</v>
+        <v>758</v>
       </c>
       <c r="Q51" s="2">
-        <v>163.5654557153488</v>
+        <v>190</v>
       </c>
       <c r="R51" s="2">
-        <v>3.2283119322752599E-7</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -3910,10 +3911,10 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>2035</v>
@@ -3922,46 +3923,46 @@
         <v>16</v>
       </c>
       <c r="E52" s="2">
-        <v>752.92578473324409</v>
+        <v>784</v>
       </c>
       <c r="F52" s="2">
-        <v>29.776930543905028</v>
+        <v>4</v>
       </c>
       <c r="G52" s="2">
-        <v>276.19032811920096</v>
+        <v>273</v>
       </c>
       <c r="H52" s="2">
-        <v>57.441499865361003</v>
+        <v>31</v>
       </c>
       <c r="I52" s="2">
-        <v>3.50289736444426</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
-        <v>594.48903716059795</v>
+        <v>235</v>
       </c>
       <c r="K52" s="2">
-        <v>1.2639577611840718E-6</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>1321.0377032412939</v>
+        <v>438</v>
       </c>
       <c r="M52" s="2">
-        <v>3.0262379256862112E-6</v>
+        <v>2</v>
       </c>
       <c r="N52" s="2">
-        <v>44.724428464628161</v>
+        <v>5</v>
       </c>
       <c r="O52" s="2">
-        <v>644.00069349159151</v>
+        <v>2375</v>
       </c>
       <c r="P52" s="2">
-        <v>370.000059159172</v>
+        <v>1939</v>
       </c>
       <c r="Q52" s="2">
-        <v>208.45700177724555</v>
+        <v>184</v>
       </c>
       <c r="R52" s="2">
-        <v>1.9187420608304607E-7</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -4145,6 +4146,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{05DF4942-0559-423B-B57C-C9CA8F9646EF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S55">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5784,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F41B35-2482-4FCC-9F10-21B44D16A51A}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:T1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6060,10 +6066,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2025</v>
@@ -6072,60 +6078,60 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>95.556908573383495</v>
+        <v>93.619</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>108.667740644867</v>
+        <v>79.820999999999998</v>
       </c>
       <c r="H5">
-        <v>17.774096279350701</v>
+        <v>5.0149999999999997</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>149.92005041125901</v>
+        <v>164.74199999999999</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>367.95014212663438</v>
+        <v>336.49</v>
       </c>
       <c r="M5">
-        <v>32.732241156614698</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>177.1611795424536</v>
+        <v>133.54900000000001</v>
       </c>
       <c r="O5">
-        <v>302.6232</v>
+        <v>158.97299999999998</v>
       </c>
       <c r="P5">
-        <v>242.6588012562971</v>
+        <v>119.071</v>
       </c>
       <c r="Q5">
-        <v>14.560098743702932</v>
+        <v>56.497999999999998</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>4.2671734802054289</v>
+        <v>10.023999999999999</v>
       </c>
       <c r="T5">
-        <v>6.9255594521028101</v>
+        <v>28.233000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2030</v>
@@ -6134,60 +6140,60 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>94.652437500792601</v>
+        <v>82.619</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>108.602361036774</v>
+        <v>79.188000000000002</v>
       </c>
       <c r="H6">
-        <v>17.745791634021</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>66.166117732983693</v>
+        <v>122.66200000000001</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>322.59064142624499</v>
+      <c r="L6" s="3">
+        <v>331.34199999999998</v>
       </c>
       <c r="M6">
-        <v>64.088095602055603</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>155.32141994596981</v>
-      </c>
-      <c r="O6">
-        <v>443.85430000000002</v>
-      </c>
-      <c r="P6">
-        <v>481.15022968677914</v>
+        <v>179.149</v>
+      </c>
+      <c r="O6" s="3">
+        <v>217.04299999999998</v>
+      </c>
+      <c r="P6" s="3">
+        <v>197.67699999999999</v>
       </c>
       <c r="Q6">
-        <v>26.374670313220875</v>
+        <v>71.046999999999997</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>13.887647827398169</v>
+      <c r="S6" s="3">
+        <v>15.03</v>
       </c>
       <c r="T6">
-        <v>8.5907362174843893</v>
+        <v>28.481000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2035</v>
@@ -6196,57 +6202,57 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>97.368921895590304</v>
+        <v>75.619</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>105.915404398901</v>
+        <v>79.173000000000002</v>
       </c>
       <c r="H7">
-        <v>16.432286200541299</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.30367748555027E-3</v>
+        <v>114.246</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>308.27249352908365</v>
+        <v>330.09399999999999</v>
       </c>
       <c r="M7">
-        <v>65.150253916159301</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>148.4274968843736</v>
+        <v>211.249</v>
       </c>
       <c r="O7">
-        <v>491.5926</v>
+        <v>258.03300000000002</v>
       </c>
       <c r="P7">
-        <v>629.43209922773269</v>
+        <v>273.84100000000001</v>
       </c>
       <c r="Q7">
-        <v>43.46830077226727</v>
+        <v>84.867000000000004</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>16.652155259430732</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="T7">
-        <v>7.1338227260348699</v>
+        <v>28.620999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -6258,57 +6264,57 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <v>96.198910485402479</v>
+        <v>95.556908573383495</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>79.070858999999999</v>
+        <v>108.667740644867</v>
       </c>
       <c r="H8">
-        <v>10.940360000000002</v>
+        <v>17.774096279350701</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>147.1873575229325</v>
+        <v>149.92005041125901</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>272.39650230362389</v>
+        <v>367.95014212663438</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>32.732241156614698</v>
       </c>
       <c r="N8">
-        <v>198.82336260417469</v>
+        <v>177.1611795424536</v>
       </c>
       <c r="O8">
-        <v>316.21367041697056</v>
+        <v>302.6232</v>
       </c>
       <c r="P8">
-        <v>350.30854049223166</v>
+        <v>242.6588012562971</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>14.560098743702932</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>31.209622010026454</v>
+        <v>4.2671734802054289</v>
       </c>
       <c r="T8">
-        <v>27.20249978278671</v>
+        <v>6.9255594521028101</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -6320,57 +6326,57 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>89.901610485402486</v>
+        <v>94.652437500792601</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>79.074858999999989</v>
+        <v>108.602361036774</v>
       </c>
       <c r="H9">
-        <v>10.940360000000002</v>
+        <v>17.745791634021</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>111.28846417630021</v>
+        <v>66.166117732983693</v>
       </c>
       <c r="K9">
-        <v>1.5972411239071147</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>274.98774409459656</v>
+        <v>322.59064142624499</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>64.088095602055603</v>
       </c>
       <c r="N9">
-        <v>195.84418027679143</v>
+        <v>155.32141994596981</v>
       </c>
       <c r="O9">
-        <v>438.83709566745733</v>
+        <v>443.85430000000002</v>
       </c>
       <c r="P9">
-        <v>489.03918533388924</v>
+        <v>481.15022968677914</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>26.374670313220875</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>34.974551087336224</v>
+        <v>13.887647827398169</v>
       </c>
       <c r="T9">
-        <v>26.764438880088019</v>
+        <v>8.5907362174843893</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -6382,60 +6388,60 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>71.108910485402504</v>
+        <v>97.368921895590304</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.074858999999989</v>
+        <v>105.915404398901</v>
       </c>
       <c r="H10">
-        <v>10.940360000000002</v>
+        <v>16.432286200541299</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>107.79854717241956</v>
+        <v>1.30367748555027E-3</v>
       </c>
       <c r="K10">
-        <v>2.9375972748055292</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>275.23838247510713</v>
+        <v>308.27249352908365</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>65.150253916159301</v>
       </c>
       <c r="N10">
-        <v>197.22418027679146</v>
+        <v>148.4274968843736</v>
       </c>
       <c r="O10">
-        <v>507.2999718578659</v>
+        <v>491.5926</v>
       </c>
       <c r="P10">
-        <v>522.01839551004707</v>
+        <v>629.43209922773269</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>43.46830077226727</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>40.484461400374911</v>
+        <v>16.652155259430732</v>
       </c>
       <c r="T10">
-        <v>26.764438880088019</v>
+        <v>7.1338227260348699</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2025</v>
@@ -6444,60 +6450,60 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>92.046103965000086</v>
+        <v>100.255751580552</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>103.58858022900002</v>
+        <v>109.74165311690599</v>
       </c>
       <c r="H11">
-        <v>5.9591079999999979</v>
+        <v>18.870558344054899</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>106.16136909072196</v>
+        <v>231.503937419327</v>
       </c>
       <c r="K11">
-        <v>6.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>302.36037613199971</v>
+        <v>418.73974660150844</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>0.17159150482781599</v>
       </c>
       <c r="N11">
-        <v>208.771187392</v>
+        <v>201.61543354887442</v>
       </c>
       <c r="O11">
-        <v>161.04809436099998</v>
+        <v>175.22919999999999</v>
       </c>
       <c r="P11">
-        <v>127.89095646258994</v>
+        <v>188.56984431842798</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>12.631255681572016</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>26.567156899000004</v>
+        <v>2.9064796665161881</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>6.0567118555990298</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>2030</v>
@@ -6506,60 +6512,60 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>85.102004596000072</v>
+        <v>100.654075699982</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>107.13618700000001</v>
+        <v>109.696313447761</v>
       </c>
       <c r="H12">
-        <v>5.9511079999999978</v>
+        <v>19.322471838547699</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>63.274581430254585</v>
+        <v>222.51102074425401</v>
       </c>
       <c r="K12">
-        <v>19.667422886000001</v>
-      </c>
-      <c r="L12">
-        <v>308.78475143899971</v>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>401.02495577686125</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>0.25269491822837398</v>
       </c>
       <c r="N12">
-        <v>203.63147116200003</v>
-      </c>
-      <c r="O12">
-        <v>245.89446299799991</v>
-      </c>
-      <c r="P12">
-        <v>162.91057792858993</v>
+        <v>193.08608981848874</v>
+      </c>
+      <c r="O12" s="3">
+        <v>223.5591</v>
+      </c>
+      <c r="P12" s="3">
+        <v>299.09228891942968</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>29.87641108057036</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>45.256795030999996</v>
+      <c r="S12" s="3">
+        <v>6.2561286015385198</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>7.5406811435237104</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>2035</v>
@@ -6568,57 +6574,57 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>9.3919999999999995</v>
+        <v>100.58395626982499</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>107.13478700000002</v>
+        <v>107.44869358557</v>
       </c>
       <c r="H13">
-        <v>5.9522079999999988</v>
+        <v>18.503529759285101</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>54.185100138254576</v>
+        <v>206.24469177704</v>
       </c>
       <c r="K13">
-        <v>19.667422886000001</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>313.0576075029997</v>
+        <v>432.42036797501527</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>206.50404306000001</v>
+        <v>208.20239939537771</v>
       </c>
       <c r="O13">
-        <v>359.46846299900005</v>
+        <v>240.58680000000001</v>
       </c>
       <c r="P13">
-        <v>291.91057792659001</v>
+        <v>357.09982574689968</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>38.477774253100343</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>109.75679503099998</v>
+        <v>8.3508204301950499</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>7.74509470429446</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -6630,40 +6636,40 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>96.920000000000016</v>
+        <v>96.198910485402479</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>78.819999999999993</v>
+        <v>79.070858999999999</v>
       </c>
       <c r="H14">
-        <v>13.26</v>
+        <v>10.940360000000002</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>135.10000000000002</v>
+        <v>147.1873575229325</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>443.08</v>
+        <v>272.39650230362389</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>198.82336260417469</v>
       </c>
       <c r="O14">
-        <v>183.25</v>
+        <v>316.21367041697056</v>
       </c>
       <c r="P14">
-        <v>185.17000000000002</v>
+        <v>350.30854049223166</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -6672,15 +6678,15 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>36.29</v>
+        <v>31.209622010026454</v>
       </c>
       <c r="T14">
-        <v>3.01</v>
+        <v>27.20249978278671</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -6692,40 +6698,40 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>95.830000000000013</v>
+        <v>89.901610485402486</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.819999999999993</v>
+        <v>79.074858999999989</v>
       </c>
       <c r="H15">
-        <v>13.26</v>
+        <v>10.940360000000002</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>94.11999999999999</v>
+        <v>111.28846417630021</v>
       </c>
       <c r="K15">
-        <v>16.97</v>
+        <v>1.5972411239071147</v>
       </c>
       <c r="L15">
-        <v>399.47</v>
+        <v>274.98774409459656</v>
       </c>
       <c r="M15">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>195.84418027679143</v>
       </c>
       <c r="O15">
-        <v>183.25</v>
+        <v>438.83709566745733</v>
       </c>
       <c r="P15">
-        <v>197.60000000000002</v>
+        <v>489.03918533388924</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -6734,15 +6740,15 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>37.57</v>
+        <v>34.974551087336224</v>
       </c>
       <c r="T15">
-        <v>7.22</v>
+        <v>26.764438880088019</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -6754,40 +6760,40 @@
         <v>28</v>
       </c>
       <c r="E16">
-        <v>95.830000000000013</v>
+        <v>71.108910485402504</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.819999999999993</v>
+        <v>79.074858999999989</v>
       </c>
       <c r="H16">
-        <v>13.26</v>
+        <v>10.940360000000002</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>56.63</v>
+        <v>107.79854717241956</v>
       </c>
       <c r="K16">
-        <v>163.11000000000001</v>
+        <v>2.9375972748055292</v>
       </c>
       <c r="L16">
-        <v>333.71</v>
+        <v>275.23838247510713</v>
       </c>
       <c r="M16">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>197.22418027679146</v>
       </c>
       <c r="O16">
-        <v>183.25</v>
+        <v>507.2999718578659</v>
       </c>
       <c r="P16">
-        <v>210.05</v>
+        <v>522.01839551004707</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -6796,18 +6802,18 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>39.049999999999997</v>
+        <v>40.484461400374911</v>
       </c>
       <c r="T16">
-        <v>7.22</v>
+        <v>26.764438880088019</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>2025</v>
@@ -6816,60 +6822,60 @@
         <v>28</v>
       </c>
       <c r="E17">
-        <v>96.018737999999999</v>
+        <v>96.198910485403232</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>79.310485999999997</v>
+        <v>79.070858999999999</v>
       </c>
       <c r="H17">
-        <v>9.1871989999999997</v>
+        <v>10.940360000000002</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>130.748718</v>
+        <v>169.43529411450294</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>306.47386900000004</v>
+        <v>289.1218177833677</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>251.187252</v>
+        <v>237.75311897878893</v>
       </c>
       <c r="O17">
-        <v>178.72745399999999</v>
+        <v>253.23475983651201</v>
       </c>
       <c r="P17">
-        <v>160.08600700000002</v>
+        <v>173.17321867448121</v>
       </c>
       <c r="Q17">
-        <v>62.022255000000001</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>44.394252999999999</v>
+        <v>31.211822010026456</v>
       </c>
       <c r="T17">
-        <v>0.26047300000000001</v>
+        <v>29.962870566003026</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>2030</v>
@@ -6878,60 +6884,60 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>95.133255000000005</v>
+        <v>89.901610485403225</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>79.311927999999995</v>
+        <v>79.074858999999989</v>
       </c>
       <c r="H18">
-        <v>10.608810999999999</v>
+        <v>10.940360000000002</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>73.919303999999997</v>
+        <v>156.75019411450296</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>335.58097900000001</v>
+      <c r="L18" s="3">
+        <v>291.03201463749002</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>312.101541</v>
-      </c>
-      <c r="O18">
-        <v>393.49606899999998</v>
-      </c>
-      <c r="P18">
-        <v>388.99245600000006</v>
+        <v>233.91613755646776</v>
+      </c>
+      <c r="O18" s="3">
+        <v>273.24107981148086</v>
+      </c>
+      <c r="P18" s="3">
+        <v>236.1380318396605</v>
       </c>
       <c r="Q18">
-        <v>114.033394</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18">
-        <v>82.555171999999999</v>
+      <c r="S18" s="3">
+        <v>34.821821986184595</v>
       </c>
       <c r="T18">
-        <v>0.26047300000000001</v>
+        <v>29.256523848241148</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>2035</v>
@@ -6940,57 +6946,57 @@
         <v>28</v>
       </c>
       <c r="E19">
-        <v>23.025003000000002</v>
+        <v>71.108910485403243</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>79.311927999999995</v>
+        <v>79.074858999999989</v>
       </c>
       <c r="H19">
-        <v>11.877029</v>
+        <v>10.940360000000002</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>61.417503000000004</v>
+        <v>153.71240458955245</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>356.23845599999999</v>
+        <v>294.56855116469399</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>367.14764799999995</v>
+        <v>234.93141393488483</v>
       </c>
       <c r="O19">
-        <v>468.06763100000001</v>
+        <v>341.98639349453117</v>
       </c>
       <c r="P19">
-        <v>717.03277500000002</v>
+        <v>317.12250300834569</v>
       </c>
       <c r="Q19">
-        <v>132.578461</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>116.11541800000001</v>
+        <v>35.075921905350036</v>
       </c>
       <c r="T19">
-        <v>0.42002800000000001</v>
+        <v>29.256523848241148</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -7002,57 +7008,57 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>96.946799999999996</v>
+        <v>92.046103965000086</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>83.204801000000003</v>
+        <v>103.58858022900002</v>
       </c>
       <c r="H20">
-        <v>6.3887</v>
+        <v>5.9591079999999979</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>184.44659613106001</v>
+        <v>106.16136909072196</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="L20">
-        <v>290.53908212004802</v>
+        <v>302.36037613199971</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>121.529487913222</v>
+        <v>208.771187392</v>
       </c>
       <c r="O20">
-        <v>195.21845527789699</v>
+        <v>161.04809436099998</v>
       </c>
       <c r="P20">
-        <v>162.67554205568001</v>
+        <v>127.89095646258994</v>
       </c>
       <c r="Q20">
-        <v>47.258272727272697</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>34.485114556312702</v>
+        <v>26.567156899000004</v>
       </c>
       <c r="T20">
-        <v>70.406508593391806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
@@ -7064,57 +7070,57 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>94.706800000000001</v>
+        <v>85.102004596000072</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.481533097595801</v>
+        <v>107.13618700000001</v>
       </c>
       <c r="H21">
-        <v>5.8575999999999997</v>
+        <v>5.9511079999999978</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>150.36654068551599</v>
+        <v>63.274581430254585</v>
       </c>
       <c r="K21">
-        <v>0.51309513106025295</v>
+        <v>19.667422886000001</v>
       </c>
       <c r="L21">
-        <v>259.19366668688201</v>
+        <v>308.78475143899971</v>
       </c>
       <c r="M21">
-        <v>30.443007636152899</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>115.368830323222</v>
+        <v>203.63147116200003</v>
       </c>
       <c r="O21">
-        <v>352.13398975829102</v>
+        <v>245.89446299799991</v>
       </c>
       <c r="P21">
-        <v>376.40253805816798</v>
+        <v>162.91057792858993</v>
       </c>
       <c r="Q21">
-        <v>96.330636363636302</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>105.59040830613399</v>
+        <v>45.256795030999996</v>
       </c>
       <c r="T21">
-        <v>62.069737511263597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -7126,60 +7132,60 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>93.936800000000005</v>
+        <v>9.3919999999999995</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.148044751216204</v>
+        <v>107.13478700000002</v>
       </c>
       <c r="H22">
-        <v>5.0255000000000001</v>
+        <v>5.9522079999999988</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>143.50674068551601</v>
+        <v>54.185100138254576</v>
       </c>
       <c r="K22">
-        <v>0.51309513106025295</v>
+        <v>19.667422886000001</v>
       </c>
       <c r="L22">
-        <v>257.55156668688198</v>
+        <v>313.0576075029997</v>
       </c>
       <c r="M22">
-        <v>30.443007636152899</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>115.97510139883001</v>
+        <v>206.50404306000001</v>
       </c>
       <c r="O22">
-        <v>423.255273560006</v>
+        <v>359.46846299900005</v>
       </c>
       <c r="P22">
-        <v>505.12845402042399</v>
+        <v>291.91057792659001</v>
       </c>
       <c r="Q22">
-        <v>130.97468181818101</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>184.515486740082</v>
+        <v>109.75679503099998</v>
       </c>
       <c r="T22">
-        <v>56.436494487375199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>2025</v>
@@ -7188,49 +7194,49 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>92.729566999999989</v>
+        <v>90.903600000000083</v>
       </c>
       <c r="F23">
-        <v>3.6349999956903796</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>80.639915977832516</v>
+        <v>104.62844182700002</v>
       </c>
       <c r="H23">
-        <v>6.7365587675112302</v>
+        <v>6.0371079999999999</v>
       </c>
       <c r="I23">
-        <v>1.1022691407691434E-2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>149.5782349747206</v>
+        <v>104.62927136449809</v>
       </c>
       <c r="K23">
-        <v>8.2222263479238826</v>
+        <v>2.4029110530000004</v>
       </c>
       <c r="L23">
-        <v>275.15462874822202</v>
+        <v>305.20431580299959</v>
       </c>
       <c r="M23">
-        <v>8.8577820419857539E-2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>192.72283308722137</v>
+        <v>201.063877843</v>
       </c>
       <c r="O23">
-        <v>165.67653345610333</v>
+        <v>188.74231700099998</v>
       </c>
       <c r="P23">
-        <v>136.92552040745565</v>
+        <v>135.52337568658993</v>
       </c>
       <c r="Q23">
-        <v>64.613914515791791</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>9.8948978021159285E-7</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>50.394700359051569</v>
+        <v>27.797706096000006</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -7238,10 +7244,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>2030</v>
@@ -7250,49 +7256,49 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>92.729566999999989</v>
+        <v>63.355769595000012</v>
       </c>
       <c r="F24">
-        <v>3.6349999935104549</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>80.639915977832516</v>
+        <v>105.88178700000002</v>
       </c>
       <c r="H24">
-        <v>6.8113554951356194</v>
+        <v>6.1296080000000002</v>
       </c>
       <c r="I24">
-        <v>0.81379897591603045</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>79.959350863392757</v>
+        <v>84.500936675498124</v>
       </c>
       <c r="K24">
-        <v>28.325876077096609</v>
-      </c>
-      <c r="L24">
-        <v>282.07284584912156</v>
+        <v>2.4029110530000004</v>
+      </c>
+      <c r="L24" s="3">
+        <v>349.58933408799965</v>
       </c>
       <c r="M24">
-        <v>8.858048280376192E-2</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>187.88735429252657</v>
-      </c>
-      <c r="O24">
-        <v>184.73194521467417</v>
-      </c>
-      <c r="P24">
-        <v>144.50091592568674</v>
+        <v>200.42181350600001</v>
+      </c>
+      <c r="O24" s="3">
+        <v>216.47077107399991</v>
+      </c>
+      <c r="P24" s="3">
+        <v>147.38099844058996</v>
       </c>
       <c r="Q24">
-        <v>98.360992806889485</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.2837242967497038E-2</v>
-      </c>
-      <c r="S24">
-        <v>72.403019993497537</v>
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>34.613210799000001</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -7300,10 +7306,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>2035</v>
@@ -7312,49 +7318,49 @@
         <v>28</v>
       </c>
       <c r="E25">
-        <v>92.729566999999989</v>
+        <v>8.4561461760000007</v>
       </c>
       <c r="F25">
-        <v>3.6349999930305739</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>80.639915977832516</v>
+        <v>105.88038700000001</v>
       </c>
       <c r="H25">
-        <v>6.7977059031898603</v>
+        <v>6.2161079999999993</v>
       </c>
       <c r="I25">
-        <v>0.81379897746782381</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>27.116266740138077</v>
+        <v>68.483877001498087</v>
       </c>
       <c r="K25">
-        <v>28.325876482524063</v>
+        <v>2.4029110530000004</v>
       </c>
       <c r="L25">
-        <v>272.52700874670546</v>
+        <v>377.31242074999966</v>
       </c>
       <c r="M25">
-        <v>8.858086308394314E-2</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>176.95314942680204</v>
+        <v>200.63732945700002</v>
       </c>
       <c r="O25">
-        <v>340.42694529356226</v>
+        <v>271.17560959999992</v>
       </c>
       <c r="P25">
-        <v>259.05220896779764</v>
+        <v>245.34013308658996</v>
       </c>
       <c r="Q25">
-        <v>123.24841439537354</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2.2837619867006238E-2</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>154.77529108342549</v>
+        <v>80.892523699000009</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -7362,7 +7368,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -7374,57 +7380,57 @@
         <v>28</v>
       </c>
       <c r="E26">
-        <v>96</v>
+        <v>96.920000000000016</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>84</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="H26">
-        <v>8.5</v>
+        <v>13.26</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>171</v>
+        <v>135.10000000000002</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>304.5</v>
+        <v>443.08</v>
       </c>
       <c r="M26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>139.5</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>251.5</v>
+        <v>183.25</v>
       </c>
       <c r="P26">
-        <v>150</v>
+        <v>185.17000000000002</v>
       </c>
       <c r="Q26">
-        <v>85.5</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>35</v>
+        <v>36.29</v>
       </c>
       <c r="T26">
-        <v>57</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -7436,57 +7442,57 @@
         <v>28</v>
       </c>
       <c r="E27">
-        <v>95</v>
+        <v>95.830000000000013</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>13.26</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>104</v>
+        <v>94.11999999999999</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>16.97</v>
       </c>
       <c r="L27">
-        <v>315</v>
+        <v>399.47</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="N27">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>450</v>
+        <v>183.25</v>
       </c>
       <c r="P27">
-        <v>415</v>
+        <v>197.60000000000002</v>
       </c>
       <c r="Q27">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>117</v>
+        <v>37.57</v>
       </c>
       <c r="T27">
-        <v>18</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -7498,57 +7504,57 @@
         <v>28</v>
       </c>
       <c r="E28">
-        <v>86</v>
+        <v>95.830000000000013</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>13.26</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>74</v>
+        <v>56.63</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>163.11000000000001</v>
       </c>
       <c r="L28">
-        <v>291</v>
+        <v>333.71</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="N28">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>598</v>
+        <v>183.25</v>
       </c>
       <c r="P28">
-        <v>1001</v>
+        <v>210.05</v>
       </c>
       <c r="Q28">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>354</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -7560,57 +7566,57 @@
         <v>28</v>
       </c>
       <c r="E29" s="1">
-        <v>93.619</v>
+        <v>96.92</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>79.820999999999998</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="H29" s="1">
-        <v>5.0149999999999997</v>
+        <v>13.049999999999999</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>164.74199999999999</v>
+        <v>172.4</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>336.49</v>
+        <v>470.33</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>133.54900000000001</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>158.97299999999998</v>
+        <v>185.86</v>
       </c>
       <c r="P29" s="1">
-        <v>119.071</v>
+        <v>199.8</v>
       </c>
       <c r="Q29" s="1">
-        <v>56.497999999999998</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>10.023999999999999</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="T29" s="1">
-        <v>28.233000000000001</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
@@ -7622,57 +7628,57 @@
         <v>28</v>
       </c>
       <c r="E30" s="1">
-        <v>82.619</v>
+        <v>95.83</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>79.188000000000002</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="H30" s="1">
-        <v>5.1050000000000004</v>
+        <v>13.049999999999999</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>122.66200000000001</v>
+        <v>156.29</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>331.34199999999998</v>
+        <v>431.75</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>179.149</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>217.04299999999998</v>
+        <v>195.28</v>
       </c>
       <c r="P30" s="3">
-        <v>197.67699999999999</v>
+        <v>212.23000000000002</v>
       </c>
       <c r="Q30" s="1">
-        <v>71.046999999999997</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
       </c>
       <c r="S30" s="3">
-        <v>15.03</v>
+        <v>41.24</v>
       </c>
       <c r="T30" s="1">
-        <v>28.481000000000002</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -7684,60 +7690,60 @@
         <v>28</v>
       </c>
       <c r="E31" s="1">
-        <v>75.619</v>
+        <v>95.83</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>79.173000000000002</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="H31" s="1">
-        <v>5.1050000000000004</v>
+        <v>13.049999999999999</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>114.246</v>
+        <v>134.91999999999999</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>330.09399999999999</v>
+        <v>422.02</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>211.249</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>258.03300000000002</v>
+        <v>199.48</v>
       </c>
       <c r="P31" s="1">
-        <v>273.84100000000001</v>
+        <v>224.68</v>
       </c>
       <c r="Q31" s="1">
-        <v>84.867000000000004</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>18.559999999999999</v>
+        <v>43.35</v>
       </c>
       <c r="T31" s="1">
-        <v>28.620999999999999</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>2025</v>
@@ -7746,60 +7752,60 @@
         <v>28</v>
       </c>
       <c r="E32" s="1">
-        <v>100.255751580552</v>
+        <v>96.018737999999999</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>109.74165311690599</v>
+        <v>79.310485999999997</v>
       </c>
       <c r="H32" s="1">
-        <v>18.870558344054899</v>
+        <v>9.1871989999999997</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>231.503937419327</v>
+        <v>130.748718</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>418.73974660150844</v>
+        <v>306.47386900000004</v>
       </c>
       <c r="M32" s="1">
-        <v>0.17159150482781599</v>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>201.61543354887442</v>
+        <v>251.187252</v>
       </c>
       <c r="O32" s="1">
-        <v>175.22919999999999</v>
+        <v>178.72745399999999</v>
       </c>
       <c r="P32" s="1">
-        <v>188.56984431842798</v>
+        <v>160.08600700000002</v>
       </c>
       <c r="Q32" s="1">
-        <v>12.631255681572016</v>
+        <v>62.022255000000001</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>2.9064796665161881</v>
+        <v>44.394252999999999</v>
       </c>
       <c r="T32" s="1">
-        <v>6.0567118555990298</v>
+        <v>0.26047300000000001</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
         <v>2030</v>
@@ -7808,60 +7814,60 @@
         <v>28</v>
       </c>
       <c r="E33" s="1">
-        <v>100.654075699982</v>
+        <v>95.133255000000005</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>109.696313447761</v>
+        <v>79.311927999999995</v>
       </c>
       <c r="H33" s="1">
-        <v>19.322471838547699</v>
+        <v>10.608810999999999</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>222.51102074425401</v>
+        <v>73.919303999999997</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
       </c>
-      <c r="L33" s="3">
-        <v>401.02495577686125</v>
+      <c r="L33" s="1">
+        <v>335.58097900000001</v>
       </c>
       <c r="M33" s="1">
-        <v>0.25269491822837398</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>193.08608981848874</v>
-      </c>
-      <c r="O33" s="3">
-        <v>223.5591</v>
-      </c>
-      <c r="P33" s="3">
-        <v>299.09228891942968</v>
+        <v>312.101541</v>
+      </c>
+      <c r="O33" s="1">
+        <v>393.49606899999998</v>
+      </c>
+      <c r="P33" s="1">
+        <v>388.99245600000006</v>
       </c>
       <c r="Q33" s="1">
-        <v>29.87641108057036</v>
+        <v>114.033394</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="3">
-        <v>6.2561286015385198</v>
+      <c r="S33" s="1">
+        <v>82.555171999999999</v>
       </c>
       <c r="T33" s="1">
-        <v>7.5406811435237104</v>
+        <v>0.26047300000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>2035</v>
@@ -7870,57 +7876,57 @@
         <v>28</v>
       </c>
       <c r="E34" s="1">
-        <v>100.58395626982499</v>
+        <v>23.025003000000002</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>107.44869358557</v>
+        <v>79.311927999999995</v>
       </c>
       <c r="H34" s="1">
-        <v>18.503529759285101</v>
+        <v>11.877029</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>206.24469177704</v>
+        <v>61.417503000000004</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>432.42036797501527</v>
+        <v>356.23845599999999</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>208.20239939537771</v>
+        <v>367.14764799999995</v>
       </c>
       <c r="O34" s="1">
-        <v>240.58680000000001</v>
+        <v>468.06763100000001</v>
       </c>
       <c r="P34" s="1">
-        <v>357.09982574689968</v>
+        <v>717.03277500000002</v>
       </c>
       <c r="Q34" s="1">
-        <v>38.477774253100343</v>
+        <v>132.578461</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>8.3508204301950499</v>
+        <v>116.11541800000001</v>
       </c>
       <c r="T34" s="1">
-        <v>7.74509470429446</v>
+        <v>0.42002800000000001</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -7932,57 +7938,57 @@
         <v>28</v>
       </c>
       <c r="E35" s="1">
-        <v>96.198910485403232</v>
+        <v>96.018737999999999</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>79.070858999999999</v>
+        <v>79.358749000000003</v>
       </c>
       <c r="H35" s="1">
-        <v>10.940360000000002</v>
+        <v>9.1476559999999996</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>169.43529411450294</v>
+        <v>162.200806</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>289.1218177833677</v>
+        <v>297.69653499999998</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <v>237.75311897878893</v>
+        <v>240.28393</v>
       </c>
       <c r="O35" s="1">
-        <v>253.23475983651201</v>
+        <v>217.844752</v>
       </c>
       <c r="P35" s="1">
-        <v>173.17321867448121</v>
+        <v>214.651712</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>59.733021000000001</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>31.211822010026456</v>
+        <v>36.259197</v>
       </c>
       <c r="T35" s="1">
-        <v>29.962870566003026</v>
+        <v>0.26036799999999999</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -7994,57 +8000,57 @@
         <v>28</v>
       </c>
       <c r="E36" s="1">
-        <v>89.901610485403225</v>
+        <v>82.614745999999997</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>79.074858999999989</v>
+        <v>79.339149000000006</v>
       </c>
       <c r="H36" s="1">
-        <v>10.940360000000002</v>
+        <v>10.142697999999999</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>156.75019411450296</v>
+        <v>101.98271200000001</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>291.03201463749002</v>
+        <v>329.17826099999996</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>0.206371</v>
       </c>
       <c r="N36" s="1">
-        <v>233.91613755646776</v>
+        <v>272.60033699999997</v>
       </c>
       <c r="O36" s="3">
-        <v>273.24107981148086</v>
+        <v>239.309742</v>
       </c>
       <c r="P36" s="3">
-        <v>236.1380318396605</v>
+        <v>249.04043799999999</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>108.440376</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
       </c>
       <c r="S36" s="3">
-        <v>34.821821986184595</v>
+        <v>40.433932999999996</v>
       </c>
       <c r="T36" s="1">
-        <v>29.256523848241148</v>
+        <v>0.26036799999999999</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -8056,60 +8062,60 @@
         <v>28</v>
       </c>
       <c r="E37" s="1">
-        <v>71.108910485403243</v>
+        <v>75.881714000000002</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>79.074858999999989</v>
+        <v>79.339149000000006</v>
       </c>
       <c r="H37" s="1">
-        <v>10.940360000000002</v>
+        <v>11.185253000000001</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>153.71240458955245</v>
+        <v>90.852508999999998</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>294.56855116469399</v>
+        <v>349.73947900000002</v>
       </c>
       <c r="M37" s="1">
-        <v>0</v>
+        <v>0.206371</v>
       </c>
       <c r="N37" s="1">
-        <v>234.93141393488483</v>
+        <v>299.91934599999996</v>
       </c>
       <c r="O37" s="1">
-        <v>341.98639349453117</v>
+        <v>255.506336</v>
       </c>
       <c r="P37" s="1">
-        <v>317.12250300834569</v>
+        <v>370.97113000000002</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>136.21002200000001</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>35.075921905350036</v>
+        <v>44.971028000000004</v>
       </c>
       <c r="T37" s="1">
-        <v>29.256523848241148</v>
+        <v>0.259268</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>2025</v>
@@ -8118,60 +8124,60 @@
         <v>28</v>
       </c>
       <c r="E38" s="1">
-        <v>90.903600000000083</v>
+        <v>96.946799999999996</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>104.62844182700002</v>
+        <v>83.204801000000003</v>
       </c>
       <c r="H38" s="1">
-        <v>6.0371079999999999</v>
+        <v>6.3887</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>104.62927136449809</v>
+        <v>184.44659613106001</v>
       </c>
       <c r="K38" s="1">
-        <v>2.4029110530000004</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>305.20431580299959</v>
+        <v>290.53908212004802</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <v>201.063877843</v>
+        <v>121.529487913222</v>
       </c>
       <c r="O38" s="1">
-        <v>188.74231700099998</v>
+        <v>195.21845527789699</v>
       </c>
       <c r="P38" s="1">
-        <v>135.52337568658993</v>
+        <v>162.67554205568001</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>47.258272727272697</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>27.797706096000006</v>
+        <v>34.485114556312702</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>70.406508593391806</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>2030</v>
@@ -8180,60 +8186,60 @@
         <v>28</v>
       </c>
       <c r="E39" s="1">
-        <v>63.355769595000012</v>
+        <v>94.706800000000001</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>105.88178700000002</v>
+        <v>84.481533097595801</v>
       </c>
       <c r="H39" s="1">
-        <v>6.1296080000000002</v>
+        <v>5.8575999999999997</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>84.500936675498124</v>
+        <v>150.36654068551599</v>
       </c>
       <c r="K39" s="1">
-        <v>2.4029110530000004</v>
-      </c>
-      <c r="L39" s="3">
-        <v>349.58933408799965</v>
+        <v>0.51309513106025295</v>
+      </c>
+      <c r="L39" s="1">
+        <v>259.19366668688201</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>30.443007636152899</v>
       </c>
       <c r="N39" s="1">
-        <v>200.42181350600001</v>
-      </c>
-      <c r="O39" s="3">
-        <v>216.47077107399991</v>
-      </c>
-      <c r="P39" s="3">
-        <v>147.38099844058996</v>
+        <v>115.368830323222</v>
+      </c>
+      <c r="O39" s="1">
+        <v>352.13398975829102</v>
+      </c>
+      <c r="P39" s="1">
+        <v>376.40253805816798</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>96.330636363636302</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="3">
-        <v>34.613210799000001</v>
+      <c r="S39" s="1">
+        <v>105.59040830613399</v>
       </c>
       <c r="T39" s="1">
-        <v>0</v>
+        <v>62.069737511263597</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>2035</v>
@@ -8242,57 +8248,57 @@
         <v>28</v>
       </c>
       <c r="E40" s="1">
-        <v>8.4561461760000007</v>
+        <v>93.936800000000005</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>105.88038700000001</v>
+        <v>85.148044751216204</v>
       </c>
       <c r="H40" s="1">
-        <v>6.2161079999999993</v>
+        <v>5.0255000000000001</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>68.483877001498087</v>
+        <v>143.50674068551601</v>
       </c>
       <c r="K40" s="1">
-        <v>2.4029110530000004</v>
+        <v>0.51309513106025295</v>
       </c>
       <c r="L40" s="1">
-        <v>377.31242074999966</v>
+        <v>257.55156668688198</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>30.443007636152899</v>
       </c>
       <c r="N40" s="1">
-        <v>200.63732945700002</v>
+        <v>115.97510139883001</v>
       </c>
       <c r="O40" s="1">
-        <v>271.17560959999992</v>
+        <v>423.255273560006</v>
       </c>
       <c r="P40" s="1">
-        <v>245.34013308658996</v>
+        <v>505.12845402042399</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>130.97468181818101</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>80.892523699000009</v>
+        <v>184.515486740082</v>
       </c>
       <c r="T40" s="1">
-        <v>0</v>
+        <v>56.436494487375199</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>19</v>
@@ -8304,57 +8310,57 @@
         <v>28</v>
       </c>
       <c r="E41" s="1">
-        <v>96.92</v>
+        <v>96.946799999999996</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>78.819999999999993</v>
+        <v>83.202800999999994</v>
       </c>
       <c r="H41" s="1">
-        <v>13.049999999999999</v>
+        <v>6.3887</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>172.4</v>
+        <v>185.01150100000001</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>470.33</v>
+        <v>292.92100167053297</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
+        <v>124.840461054974</v>
       </c>
       <c r="O41" s="1">
-        <v>185.86</v>
+        <v>159.37578961841899</v>
       </c>
       <c r="P41" s="1">
-        <v>199.8</v>
+        <v>120.642437542617</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>31.898545454545399</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>38.619999999999997</v>
+        <v>32.617392444537003</v>
       </c>
       <c r="T41" s="1">
-        <v>3.01</v>
+        <v>71.467753188640401</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>19</v>
@@ -8366,57 +8372,57 @@
         <v>28</v>
       </c>
       <c r="E42" s="1">
-        <v>95.83</v>
+        <v>94.706800000000001</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>78.819999999999993</v>
+        <v>84.205930999999893</v>
       </c>
       <c r="H42" s="1">
-        <v>13.049999999999999</v>
+        <v>5.8575999999999997</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>156.29</v>
+        <v>155.98859531217701</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>431.75</v>
+        <v>334.54602330087999</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <v>0</v>
+        <v>117.923478484247</v>
       </c>
       <c r="O42" s="3">
-        <v>195.28</v>
+        <v>182.50497606054901</v>
       </c>
       <c r="P42" s="3">
-        <v>212.23000000000002</v>
+        <v>172.69271816049999</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>60.163181818181798</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>41.24</v>
+        <v>40.737873565161799</v>
       </c>
       <c r="T42" s="1">
-        <v>7.22</v>
+        <v>61.481480292122598</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>19</v>
@@ -8428,60 +8434,60 @@
         <v>28</v>
       </c>
       <c r="E43" s="1">
-        <v>95.83</v>
+        <v>94.706800000000001</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>78.819999999999993</v>
+        <v>84.876915999999994</v>
       </c>
       <c r="H43" s="1">
-        <v>13.049999999999999</v>
+        <v>5.0255000000000001</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>134.91999999999999</v>
+        <v>147.57403470136001</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>422.02</v>
+        <v>363.85848655830898</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>0</v>
+        <v>116.26498505753401</v>
       </c>
       <c r="O43" s="1">
-        <v>199.48</v>
+        <v>212.11737183017101</v>
       </c>
       <c r="P43" s="1">
-        <v>224.68</v>
+        <v>188.60241699892799</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>86.937772727272701</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>43.35</v>
+        <v>52.5549780100948</v>
       </c>
       <c r="T43" s="1">
-        <v>7.22</v>
+        <v>54.334213728122599</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>2025</v>
@@ -8490,60 +8496,60 @@
         <v>28</v>
       </c>
       <c r="E44" s="1">
-        <v>96.018737999999999</v>
+        <v>92.729566999999989</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>3.6349999956903796</v>
       </c>
       <c r="G44" s="1">
-        <v>79.358749000000003</v>
+        <v>80.639915977832516</v>
       </c>
       <c r="H44" s="1">
-        <v>9.1476559999999996</v>
+        <v>6.7365587675112302</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>1.1022691407691434E-2</v>
       </c>
       <c r="J44" s="1">
-        <v>162.200806</v>
+        <v>149.5782349747206</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>8.2222263479238826</v>
       </c>
       <c r="L44" s="1">
-        <v>297.69653499999998</v>
+        <v>275.15462874822202</v>
       </c>
       <c r="M44" s="1">
-        <v>0</v>
+        <v>8.8577820419857539E-2</v>
       </c>
       <c r="N44" s="1">
-        <v>240.28393</v>
+        <v>192.72283308722137</v>
       </c>
       <c r="O44" s="1">
-        <v>217.844752</v>
+        <v>165.67653345610333</v>
       </c>
       <c r="P44" s="1">
-        <v>214.651712</v>
+        <v>136.92552040745565</v>
       </c>
       <c r="Q44" s="1">
-        <v>59.733021000000001</v>
+        <v>64.613914515791791</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>9.8948978021159285E-7</v>
       </c>
       <c r="S44" s="1">
-        <v>36.259197</v>
+        <v>50.394700359051569</v>
       </c>
       <c r="T44" s="1">
-        <v>0.26036799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>2030</v>
@@ -8552,60 +8558,60 @@
         <v>28</v>
       </c>
       <c r="E45" s="1">
-        <v>82.614745999999997</v>
+        <v>92.729566999999989</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>3.6349999935104549</v>
       </c>
       <c r="G45" s="1">
-        <v>79.339149000000006</v>
+        <v>80.639915977832516</v>
       </c>
       <c r="H45" s="1">
-        <v>10.142697999999999</v>
+        <v>6.8113554951356194</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>0.81379897591603045</v>
       </c>
       <c r="J45" s="1">
-        <v>101.98271200000001</v>
+        <v>79.959350863392757</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>329.17826099999996</v>
+        <v>28.325876077096609</v>
+      </c>
+      <c r="L45" s="1">
+        <v>282.07284584912156</v>
       </c>
       <c r="M45" s="1">
-        <v>0.206371</v>
+        <v>8.858048280376192E-2</v>
       </c>
       <c r="N45" s="1">
-        <v>272.60033699999997</v>
-      </c>
-      <c r="O45" s="3">
-        <v>239.309742</v>
-      </c>
-      <c r="P45" s="3">
-        <v>249.04043799999999</v>
+        <v>187.88735429252657</v>
+      </c>
+      <c r="O45" s="1">
+        <v>184.73194521467417</v>
+      </c>
+      <c r="P45" s="1">
+        <v>144.50091592568674</v>
       </c>
       <c r="Q45" s="1">
-        <v>108.440376</v>
+        <v>98.360992806889485</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>40.433932999999996</v>
+        <v>2.2837242967497038E-2</v>
+      </c>
+      <c r="S45" s="1">
+        <v>72.403019993497537</v>
       </c>
       <c r="T45" s="1">
-        <v>0.26036799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>2035</v>
@@ -8614,57 +8620,57 @@
         <v>28</v>
       </c>
       <c r="E46" s="1">
-        <v>75.881714000000002</v>
+        <v>92.729566999999989</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>3.6349999930305739</v>
       </c>
       <c r="G46" s="1">
-        <v>79.339149000000006</v>
+        <v>80.639915977832516</v>
       </c>
       <c r="H46" s="1">
-        <v>11.185253000000001</v>
+        <v>6.7977059031898603</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>0.81379897746782381</v>
       </c>
       <c r="J46" s="1">
-        <v>90.852508999999998</v>
+        <v>27.116266740138077</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>28.325876482524063</v>
       </c>
       <c r="L46" s="1">
-        <v>349.73947900000002</v>
+        <v>272.52700874670546</v>
       </c>
       <c r="M46" s="1">
-        <v>0.206371</v>
+        <v>8.858086308394314E-2</v>
       </c>
       <c r="N46" s="1">
-        <v>299.91934599999996</v>
+        <v>176.95314942680204</v>
       </c>
       <c r="O46" s="1">
-        <v>255.506336</v>
+        <v>340.42694529356226</v>
       </c>
       <c r="P46" s="1">
-        <v>370.97113000000002</v>
+        <v>259.05220896779764</v>
       </c>
       <c r="Q46" s="1">
-        <v>136.21002200000001</v>
+        <v>123.24841439537354</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>2.2837619867006238E-2</v>
       </c>
       <c r="S46" s="1">
-        <v>44.971028000000004</v>
+        <v>154.77529108342549</v>
       </c>
       <c r="T46" s="1">
-        <v>0.259268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>19</v>
@@ -8676,57 +8682,57 @@
         <v>28</v>
       </c>
       <c r="E47" s="1">
-        <v>96.946799999999996</v>
+        <v>92.729566999999989</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>3.6349999982261525</v>
       </c>
       <c r="G47" s="1">
-        <v>83.202800999999994</v>
+        <v>80.639915977832516</v>
       </c>
       <c r="H47" s="1">
-        <v>6.3887</v>
+        <v>6.7501767898557921</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>1.9309375545923761E-8</v>
       </c>
       <c r="J47" s="1">
-        <v>185.01150100000001</v>
+        <v>168.43618691863762</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1.2418978265276093E-6</v>
       </c>
       <c r="L47" s="1">
-        <v>292.92100167053297</v>
+        <v>260.42335991022219</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>5.7698901911668654E-7</v>
       </c>
       <c r="N47" s="1">
-        <v>124.840461054974</v>
+        <v>179.1110168987791</v>
       </c>
       <c r="O47" s="1">
-        <v>159.37578961841899</v>
+        <v>164.80636598828698</v>
       </c>
       <c r="P47" s="1">
-        <v>120.642437542617</v>
+        <v>142.42853971813042</v>
       </c>
       <c r="Q47" s="1">
-        <v>31.898545454545399</v>
+        <v>56.933423151818062</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1.1105215645072511E-6</v>
       </c>
       <c r="S47" s="1">
-        <v>32.617392444537003</v>
+        <v>50.394700656850269</v>
       </c>
       <c r="T47" s="1">
-        <v>71.467753188640401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
@@ -8738,57 +8744,57 @@
         <v>28</v>
       </c>
       <c r="E48" s="1">
-        <v>94.706800000000001</v>
+        <v>92.729566999999989</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>3.6349999985104562</v>
       </c>
       <c r="G48" s="1">
-        <v>84.205930999999893</v>
+        <v>80.639915977832516</v>
       </c>
       <c r="H48" s="1">
-        <v>5.8575999999999997</v>
+        <v>6.8388518306217732</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>5.7644002085719566E-8</v>
       </c>
       <c r="J48" s="1">
-        <v>155.98859531217701</v>
+        <v>117.29434732651447</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>2.0912189665239305E-6</v>
       </c>
       <c r="L48" s="3">
-        <v>334.54602330087999</v>
+        <v>281.06605523238647</v>
       </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>1.9905657400393335E-6</v>
       </c>
       <c r="N48" s="1">
-        <v>117.923478484247</v>
+        <v>171.48285561078285</v>
       </c>
       <c r="O48" s="3">
-        <v>182.50497606054901</v>
+        <v>184.12636757226241</v>
       </c>
       <c r="P48" s="3">
-        <v>172.69271816049999</v>
+        <v>147.51129778015445</v>
       </c>
       <c r="Q48" s="1">
-        <v>60.163181818181798</v>
+        <v>78.904113759338003</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1.8584365547843236E-6</v>
       </c>
       <c r="S48" s="3">
-        <v>40.737873565161799</v>
+        <v>52.528848426433129</v>
       </c>
       <c r="T48" s="1">
-        <v>61.481480292122598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
@@ -8800,60 +8806,60 @@
         <v>28</v>
       </c>
       <c r="E49" s="1">
-        <v>94.706800000000001</v>
+        <v>92.729566999999989</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>3.6349999987951662</v>
       </c>
       <c r="G49" s="1">
-        <v>84.876915999999994</v>
+        <v>80.639915977832516</v>
       </c>
       <c r="H49" s="1">
-        <v>5.0255000000000001</v>
+        <v>6.922877540579246</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>0.55913508358823483</v>
       </c>
       <c r="J49" s="1">
-        <v>147.57403470136001</v>
+        <v>99.383530149796997</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>2.5928664772347205E-6</v>
       </c>
       <c r="L49" s="1">
-        <v>363.85848655830898</v>
+        <v>335.12538743400125</v>
       </c>
       <c r="M49" s="1">
-        <v>0</v>
+        <v>3.0769518352091593E-6</v>
       </c>
       <c r="N49" s="1">
-        <v>116.26498505753401</v>
+        <v>155.96250743787201</v>
       </c>
       <c r="O49" s="1">
-        <v>212.11737183017101</v>
+        <v>182.02775702012428</v>
       </c>
       <c r="P49" s="1">
-        <v>188.60241699892799</v>
+        <v>148.81408177038017</v>
       </c>
       <c r="Q49" s="1">
-        <v>86.937772727272701</v>
+        <v>100.88394021978783</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>2.2894266000360709E-6</v>
       </c>
       <c r="S49" s="1">
-        <v>52.5549780100948</v>
+        <v>54.793957682024143</v>
       </c>
       <c r="T49" s="1">
-        <v>54.334213728122599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>2025</v>
@@ -8862,60 +8868,60 @@
         <v>28</v>
       </c>
       <c r="E50" s="1">
-        <v>92.729566999999989</v>
+        <v>96</v>
       </c>
       <c r="F50" s="1">
-        <v>3.6349999982261525</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>80.639915977832516</v>
+        <v>84</v>
       </c>
       <c r="H50" s="1">
-        <v>6.7501767898557921</v>
+        <v>8.5</v>
       </c>
       <c r="I50" s="1">
-        <v>1.9309375545923761E-8</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>168.43618691863762</v>
+        <v>171</v>
       </c>
       <c r="K50" s="1">
-        <v>1.2418978265276093E-6</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>260.42335991022219</v>
+        <v>304.5</v>
       </c>
       <c r="M50" s="1">
-        <v>5.7698901911668654E-7</v>
+        <v>0.5</v>
       </c>
       <c r="N50" s="1">
-        <v>179.1110168987791</v>
+        <v>139.5</v>
       </c>
       <c r="O50" s="1">
-        <v>164.80636598828698</v>
+        <v>251.5</v>
       </c>
       <c r="P50" s="1">
-        <v>142.42853971813042</v>
+        <v>150</v>
       </c>
       <c r="Q50" s="1">
-        <v>56.933423151818062</v>
+        <v>85.5</v>
       </c>
       <c r="R50" s="1">
-        <v>1.1105215645072511E-6</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>50.394700656850269</v>
+        <v>35</v>
       </c>
       <c r="T50" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>2030</v>
@@ -8924,60 +8930,60 @@
         <v>28</v>
       </c>
       <c r="E51" s="1">
-        <v>92.729566999999989</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1">
-        <v>3.6349999985104562</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>80.639915977832516</v>
+        <v>85</v>
       </c>
       <c r="H51" s="1">
-        <v>6.8388518306217732</v>
+        <v>6</v>
       </c>
       <c r="I51" s="1">
-        <v>5.7644002085719566E-8</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>117.29434732651447</v>
+        <v>104</v>
       </c>
       <c r="K51" s="1">
-        <v>2.0912189665239305E-6</v>
-      </c>
-      <c r="L51" s="3">
-        <v>281.06605523238647</v>
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>315</v>
       </c>
       <c r="M51" s="1">
-        <v>1.9905657400393335E-6</v>
+        <v>1</v>
       </c>
       <c r="N51" s="1">
-        <v>171.48285561078285</v>
-      </c>
-      <c r="O51" s="3">
-        <v>184.12636757226241</v>
-      </c>
-      <c r="P51" s="3">
-        <v>147.51129778015445</v>
+        <v>137</v>
+      </c>
+      <c r="O51" s="1">
+        <v>450</v>
+      </c>
+      <c r="P51" s="1">
+        <v>415</v>
       </c>
       <c r="Q51" s="1">
-        <v>78.904113759338003</v>
+        <v>130</v>
       </c>
       <c r="R51" s="1">
-        <v>1.8584365547843236E-6</v>
-      </c>
-      <c r="S51" s="3">
-        <v>52.528848426433129</v>
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>117</v>
       </c>
       <c r="T51" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
         <v>2035</v>
@@ -8986,52 +8992,52 @@
         <v>28</v>
       </c>
       <c r="E52" s="1">
-        <v>92.729566999999989</v>
+        <v>86</v>
       </c>
       <c r="F52" s="1">
-        <v>3.6349999987951662</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>80.639915977832516</v>
+        <v>85</v>
       </c>
       <c r="H52" s="1">
-        <v>6.922877540579246</v>
+        <v>6</v>
       </c>
       <c r="I52" s="1">
-        <v>0.55913508358823483</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>99.383530149796997</v>
+        <v>74</v>
       </c>
       <c r="K52" s="1">
-        <v>2.5928664772347205E-6</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>335.12538743400125</v>
+        <v>291</v>
       </c>
       <c r="M52" s="1">
-        <v>3.0769518352091593E-6</v>
+        <v>1</v>
       </c>
       <c r="N52" s="1">
-        <v>155.96250743787201</v>
+        <v>135</v>
       </c>
       <c r="O52" s="1">
-        <v>182.02775702012428</v>
+        <v>598</v>
       </c>
       <c r="P52" s="1">
-        <v>148.81408177038017</v>
+        <v>1001</v>
       </c>
       <c r="Q52" s="1">
-        <v>100.88394021978783</v>
+        <v>167</v>
       </c>
       <c r="R52" s="1">
-        <v>2.2894266000360709E-6</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1">
-        <v>54.793957682024143</v>
+        <v>354</v>
       </c>
       <c r="T52" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -9221,6 +9227,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T1" xr:uid="{D3F41B35-2482-4FCC-9F10-21B44D16A51A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T55">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21825,7 +21836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B41A4F2-0AF7-46C5-AEA4-5A08BC75D43D}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -25337,6 +25348,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B8B916ED2FB6A47AFA4E05A3E606BD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a94e0fd8b44729910807c0515ebac9ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="3d00cabe-74f9-499f-ba26-1e0076cbc6cc" xmlns:ns6="2755580c-7c5f-43cf-bd85-5c868b718937" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c46c8e9e737c7513e9b5f82e7b81653" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25757,21 +25773,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -25813,7 +25815,24 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9C6133-5565-4829-8C00-779CE64E6A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25836,23 +25855,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -25871,4 +25874,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E1D6D69-9BC6-4995-B2A8-E3FE6BB0C249}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>